--- a/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/additive/ranking_test4/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/additive/ranking_test4/results.xlsx
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.076</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.709</v>
+        <v>25.278</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>28.68592192817251</v>
+        <v>24.85574915555493</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>28.68592687053892</v>
+        <v>25.70682382054539</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>28.6859259945377</v>
+        <v>25.88957255941447</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>28.68560112684226</v>
+        <v>24.18708811188524</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>28.68560353051457</v>
+        <v>24.71389478464931</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>28.6856038384302</v>
+        <v>24.930282659324</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>28.68599543846005</v>
+        <v>24.39848376254178</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>28.68599784212515</v>
+        <v>24.96163666380214</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>28.68599809551173</v>
+        <v>25.20874323937529</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>28.68453015509664</v>
+        <v>24.61966640283153</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>28.68453549697664</v>
+        <v>25.10929728610506</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>28.68453583221307</v>
+        <v>25.23668116533218</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>28.68443074398361</v>
+        <v>24.62720654031956</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>28.68444220986363</v>
+        <v>25.44419286694657</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>28.68444305274444</v>
+        <v>25.63243803178264</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>28.68427158271575</v>
+        <v>23.9205542750822</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>28.68428952295625</v>
+        <v>25.35317500057902</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>28.68429122765509</v>
+        <v>25.88534650234309</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>28.68379035606811</v>
+        <v>22.0861554029991</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>28.68380399465437</v>
+        <v>23.07633863235818</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>28.68380634800106</v>
+        <v>23.63124692239433</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>28.68439381398857</v>
+        <v>22.36216944218617</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>28.68440690790986</v>
+        <v>23.31479442549949</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>28.68551542292211</v>
+        <v>26.19033244754156</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>28.68552920608159</v>
+        <v>28.36881484129147</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>28.6855330775016</v>
+        <v>28.62396276346401</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>28.68517909521361</v>
+        <v>27.65280511369601</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>28.68518126114139</v>
+        <v>28.6922375249879</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>28.68518334154382</v>
+        <v>28.94847281506668</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>28.6856072240595</v>
+        <v>27.34772515356729</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>28.68560849743267</v>
+        <v>28.45897386219602</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>28.68561138640339</v>
+        <v>28.75642052627893</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>28.68399620850466</v>
+        <v>28.63374115528521</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>28.68400809259691</v>
+        <v>29.70817578412862</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>28.68400921231829</v>
+        <v>29.83758790346246</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>28.68389816338092</v>
+        <v>28.5298222273488</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>28.68392447124986</v>
+        <v>30.35635125322701</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>28.68392624738041</v>
+        <v>30.54167852781804</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>28.68413736880286</v>
+        <v>23.04821604037819</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>28.68421135185614</v>
+        <v>27.13951666084482</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>28.68419965657029</v>
+        <v>27.75013221835598</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>28.68379539771881</v>
+        <v>25.89910514953069</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>28.68385281931849</v>
+        <v>28.54035662343077</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>28.68382957368542</v>
+        <v>28.98231390767586</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>28.68436932700518</v>
+        <v>27.84405941159959</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>28.68587844797889</v>
+        <v>25.38757332689558</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>28.68566844286228</v>
+        <v>27.57363383412372</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>28.68567151170335</v>
+        <v>27.84872353272015</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>28.68533269193092</v>
+        <v>26.96102153764965</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>28.68533553808498</v>
+        <v>28.00076676566432</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>28.68533696976434</v>
+        <v>28.29158989461359</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>28.68574301497915</v>
+        <v>26.70012533498976</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>28.68574563641445</v>
+        <v>27.81846141429462</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>28.68574790700418</v>
+        <v>28.15130261107881</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>28.68426617895448</v>
+        <v>27.89299856477914</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>28.68420389852959</v>
+        <v>28.96343805988449</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>28.68420436284626</v>
+        <v>29.10826185663324</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>28.68410387958825</v>
+        <v>27.81428802856269</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>28.68412537736709</v>
+        <v>29.63290459137146</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>28.68412614217201</v>
+        <v>29.83935417389108</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>28.68415346800068</v>
+        <v>21.76649840465256</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>28.68436345786932</v>
+        <v>25.84307736093331</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>28.68435201998288</v>
+        <v>26.51416607324137</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>28.68397464047151</v>
+        <v>24.46150277942753</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>28.68400019988917</v>
+        <v>27.1285124859544</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>28.68397774003396</v>
+        <v>27.61333499746608</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>28.68450587969132</v>
+        <v>23.89289589776647</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>28.68450474856899</v>
+        <v>26.49656513191707</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>28.68659628993412</v>
+        <v>24.91840429271961</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>28.68657829751723</v>
+        <v>26.17903115780807</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>28.68657894088583</v>
+        <v>26.51386600694904</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>28.68634999104692</v>
+        <v>25.67333054931049</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>28.68635237429398</v>
+        <v>26.37043504005459</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>28.68635317636624</v>
+        <v>26.61043329022327</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>28.68664585927118</v>
+        <v>25.54504778857871</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>28.686647281843</v>
+        <v>26.25383299808192</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>28.68664813422729</v>
+        <v>26.53572946177285</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>28.68554563746576</v>
+        <v>26.30883581780687</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>28.68553628137886</v>
+        <v>26.93746161892041</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>28.68553675079678</v>
+        <v>27.14031341074201</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>28.68545365548556</v>
+        <v>26.36408078081386</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>28.68546543449914</v>
+        <v>27.40910907076678</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>28.68546606821297</v>
+        <v>27.7404465980796</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>28.68527730982974</v>
+        <v>23.47789502577494</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>28.68533225796301</v>
+        <v>25.7383794408868</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>28.68533093210254</v>
+        <v>26.57255599527075</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>28.68499719889569</v>
+        <v>24.74652515332076</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>28.68501210082438</v>
+        <v>26.3846338210761</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>28.68500552412336</v>
+        <v>26.94999326479689</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>28.68544110453368</v>
+        <v>24.49520444546103</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>28.68544783962062</v>
+        <v>26.13599592217282</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>28.68425837462547</v>
+        <v>23.88671916032276</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>28.68218991742305</v>
+        <v>23.5237158645978</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>28.6821642855953</v>
+        <v>24.34149851157895</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>28.68216395648168</v>
+        <v>24.69377036711487</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>28.68201086935317</v>
+        <v>23.70357538662748</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>28.682032095401</v>
+        <v>25.0467110101354</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>28.68203488394017</v>
+        <v>25.58333458561022</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>28.68376195174164</v>
+        <v>25.14903026380773</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>28.68384701961057</v>
+        <v>26.64731797269204</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>28.68385070462891</v>
+        <v>27.30503587069343</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>28.6833466729242</v>
+        <v>23.46496160465145</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>28.68334754657623</v>
+        <v>24.51287703554078</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>28.68335021956428</v>
+        <v>25.11660689121102</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>28.68400906311512</v>
+        <v>23.72673351072426</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>28.68399155965959</v>
+        <v>24.72486269574842</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>28.68399572341999</v>
+        <v>25.34996790930749</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>28.6815936834792</v>
+        <v>24.89545459351888</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>28.68157993117173</v>
+        <v>25.74093165548076</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>28.68158028694183</v>
+        <v>26.13923398491071</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>28.6814165159728</v>
+        <v>24.96098872785973</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>28.68144263268848</v>
+        <v>26.34401327367907</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>28.68144649002679</v>
+        <v>26.95855849533373</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>28.68363355298828</v>
+        <v>28.26656940636298</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>28.68229779878913</v>
+        <v>29.81801179333272</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>28.68235996525587</v>
+        <v>31.75387127412704</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>28.68234565477145</v>
+        <v>32.08847568940671</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>28.68221965878438</v>
+        <v>30.13963968066729</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>28.68228955018267</v>
+        <v>33.23532866450454</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>28.68227815444158</v>
+        <v>33.78031054427304</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>28.68387019043635</v>
+        <v>26.27876270462459</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>28.68386430122378</v>
+        <v>30.42552483553031</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>28.6838530215821</v>
+        <v>31.05369270601258</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>28.68348637004032</v>
+        <v>30.21712791817443</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>28.68350400595014</v>
+        <v>32.85307395021518</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>28.68348146367745</v>
+        <v>33.27258789603312</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>28.68407568324853</v>
+        <v>29.31912903343234</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>28.68402361257948</v>
+        <v>31.87278991325866</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>28.6840078666124</v>
+        <v>32.27809330016834</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>28.68185060590617</v>
+        <v>34.49455935904827</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>28.68196284116665</v>
+        <v>36.38977874800451</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>28.6819483245877</v>
+        <v>36.70762827206479</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>28.68182563528504</v>
+        <v>34.74834925850495</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>28.68190204817093</v>
+        <v>37.76999070240062</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>28.68188846650689</v>
+        <v>38.28880495998059</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>28.68415287240285</v>
+        <v>26.96284146438693</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>28.68250509508714</v>
+        <v>28.35833065740112</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>28.68253752016561</v>
+        <v>30.30324491370287</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>28.68252463715926</v>
+        <v>30.66937028169747</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>28.68240466329559</v>
+        <v>28.73290926870677</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>28.68246987626042</v>
+        <v>31.83876807519423</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>28.68401719978489</v>
+        <v>25.22036379879547</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>28.68391857707954</v>
+        <v>29.35547284334777</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>28.68402188172943</v>
+        <v>30.0424621209221</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>28.68364291668496</v>
+        <v>29.00123537546571</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>28.68366727745259</v>
+        <v>31.66512198547605</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>28.68364246979893</v>
+        <v>32.12642725198121</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>28.6842138677523</v>
+        <v>28.1723931929668</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>28.68419452732115</v>
+        <v>30.75180928141357</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>28.68416142194365</v>
+        <v>31.20222119603363</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>28.68208011357437</v>
+        <v>33.23712872007283</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>28.68219333134435</v>
+        <v>35.14617371944965</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>28.68214170810798</v>
+        <v>35.49251191340344</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>28.68202492760806</v>
+        <v>33.52152646609386</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>28.68209577848066</v>
+        <v>36.5621068544178</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>28.68208467277748</v>
+        <v>37.12574769108652</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>28.6853307325259</v>
+        <v>26.76911175329689</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>28.68349419616584</v>
+        <v>26.29595809251967</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>28.68379253090799</v>
+        <v>27.49705340105252</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>28.68377233618601</v>
+        <v>27.96629892950877</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>28.68364539665956</v>
+        <v>26.29026086368556</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>28.68367355294163</v>
+        <v>28.20350930395596</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>28.68368079128752</v>
+        <v>28.9722560401722</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>28.68506830077331</v>
+        <v>27.2651475465013</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>28.68502611965273</v>
+        <v>29.60649383931532</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>28.68507769436773</v>
+        <v>30.44913148466221</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>28.68474533071614</v>
+        <v>29.53267415962822</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>28.6847562731786</v>
+        <v>31.26701169349551</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>28.68475304893075</v>
+        <v>31.84616640098941</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>28.68521575752234</v>
+        <v>29.00840809701308</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>28.68520874270398</v>
+        <v>30.734391054207</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>28.68520890370781</v>
+        <v>31.38618887989008</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>28.68340808789987</v>
+        <v>31.39166147245947</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>28.68345684843947</v>
+        <v>32.63450777170371</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>28.6834582364144</v>
+        <v>33.12335704134633</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>28.68332274830918</v>
+        <v>31.2390168087381</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>28.68335568981385</v>
+        <v>33.20867144197307</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>28.68336420589564</v>
+        <v>34.01104529718344</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>28.68364338998806</v>
+        <v>16.35787123905797</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>28.68364198589534</v>
+        <v>18.07196927114997</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>28.68367445939449</v>
+        <v>18.4378381892662</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>28.68313638780833</v>
+        <v>13.9976635394871</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>28.68313187996008</v>
+        <v>14.99770642498206</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>28.68313993523508</v>
+        <v>15.45710596623892</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>28.68380712448322</v>
+        <v>14.71344335712149</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>28.68379592444284</v>
+        <v>15.80490715717652</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>28.68382740056368</v>
+        <v>16.32188317917816</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>28.68124781480359</v>
+        <v>14.79027240196038</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>28.6812697647631</v>
+        <v>15.77692742663705</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>28.68124149697508</v>
+        <v>16.0436820514918</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>28.68104946917431</v>
+        <v>15.01895789750565</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>28.68106705952952</v>
+        <v>16.68020706632871</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>28.681067278861</v>
+        <v>17.07263671937765</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>28.68045973067716</v>
+        <v>19.09258278611513</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>28.68044380153105</v>
+        <v>22.355824286859</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>28.68076178742081</v>
+        <v>23.4980924886364</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>28.67999018029426</v>
+        <v>15.06883791440412</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>28.67999369284785</v>
+        <v>17.27957240420615</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>28.67998532567619</v>
+        <v>18.48243248952316</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>28.68103951084969</v>
+        <v>15.52119333295328</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>28.68101911591977</v>
+        <v>17.64678086270273</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>28.68282154497629</v>
+        <v>14.52431878407023</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>28.68282548565822</v>
+        <v>18.89751137344755</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>28.6832546193924</v>
+        <v>19.45679193249063</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>28.68272552394916</v>
+        <v>15.61139807158633</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>28.68271158962158</v>
+        <v>17.46288677537699</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>28.68272163822806</v>
+        <v>18.01631486568201</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>28.68342635079216</v>
+        <v>15.75620382956306</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>28.68339400671681</v>
+        <v>17.73217303199914</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>28.68342739826714</v>
+        <v>18.37845222214641</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>28.68067241997561</v>
+        <v>17.08475221970006</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>28.68072404750949</v>
+        <v>19.23840589238739</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>28.68071771867242</v>
+        <v>19.52512326877734</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>28.68050609445066</v>
+        <v>17.26208585041054</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>28.68055483319899</v>
+        <v>20.98785836221187</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>28.68055059060364</v>
+        <v>21.40179966714859</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>28.67985807446151</v>
+        <v>18.20519250888695</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>28.67981434746264</v>
+        <v>27.55644065385613</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>28.68057913263888</v>
+        <v>28.90034389426035</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>28.67999496122586</v>
+        <v>24.93361413200104</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>28.68001498361118</v>
+        <v>30.81745912770435</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>28.67996273893745</v>
+        <v>31.77596776023157</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>28.68099263067471</v>
+        <v>23.42852760276362</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>28.68095329830384</v>
+        <v>29.21157263029436</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>28.68338545280183</v>
+        <v>12.63053186876419</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>28.68340374953808</v>
+        <v>17.01946278075227</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>28.68350027113115</v>
+        <v>17.61545334716317</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>28.68299068535976</v>
+        <v>13.90967826721542</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>28.68297864765755</v>
+        <v>15.76307693859892</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>28.68298913475545</v>
+        <v>16.39408867555937</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>28.6836607934742</v>
+        <v>14.18637798395493</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>28.6836310901953</v>
+        <v>16.18358704368723</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>28.6836648975691</v>
+        <v>16.9071555784408</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>28.68103587816449</v>
+        <v>15.22692949656646</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>28.68108581806728</v>
+        <v>17.3686162661587</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>28.68107224862268</v>
+        <v>17.69170516892</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>28.68087096345822</v>
+        <v>15.44979510446511</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>28.68091729560726</v>
+        <v>19.15148611060582</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>28.6809136521254</v>
+        <v>19.61609173686801</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>28.68026213371605</v>
+        <v>15.24979667788787</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>28.68021973777477</v>
+        <v>24.58083115432417</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>28.68090452805182</v>
+        <v>26.06802833479942</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>28.68032380185129</v>
+        <v>21.62340878911008</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>28.68034315861748</v>
+        <v>27.58208176217556</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>28.68029968297355</v>
+        <v>28.64814920725424</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>28.68128716618299</v>
+        <v>20.26616036537556</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>28.68124919279157</v>
+        <v>26.12730388030386</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>28.68471018892406</v>
+        <v>13.00691283772191</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>28.68471537592166</v>
+        <v>15.62349102767742</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>28.68482920390121</v>
+        <v>16.3694640321014</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>28.68443270322884</v>
+        <v>13.3138546544499</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>28.68442966338301</v>
+        <v>14.5873874525867</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>28.68443635852496</v>
+        <v>15.17621215422864</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>28.6849541046198</v>
+        <v>13.62297092425006</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>28.68494204223221</v>
+        <v>14.91511578515284</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>28.6849609075986</v>
+        <v>15.58557965425771</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>28.68295353596499</v>
+        <v>14.1429428075438</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>28.68297883398074</v>
+        <v>15.41025131472857</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>28.68297205081026</v>
+        <v>15.88019341194066</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>28.68281686401247</v>
+        <v>14.57022385558556</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>28.68283909830166</v>
+        <v>16.71448176174637</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>28.68283817228098</v>
+        <v>17.47447989036554</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>28.68233279441987</v>
+        <v>18.96863010761066</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>28.68231442571036</v>
+        <v>24.16681832066499</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>28.68255692951463</v>
+        <v>26.01142277025403</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>28.68200436609842</v>
+        <v>21.87866362791737</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>28.6820167745535</v>
+        <v>25.62246030340757</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>28.6820062011152</v>
+        <v>26.90937324217882</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>28.68281735762763</v>
+        <v>21.17861600453117</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>28.68280514468429</v>
+        <v>24.96743604328237</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>28.68040996199557</v>
+        <v>18.8808665081639</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>28.67601277099959</v>
+        <v>18.5624912924971</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>28.67711612717332</v>
+        <v>20.38736737043209</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>28.67709935839091</v>
+        <v>21.18254010845691</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>28.67681357808428</v>
+        <v>19.00381393871399</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>28.67686113411188</v>
+        <v>22.00405847102094</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>28.67685711742741</v>
+        <v>23.22798060513626</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>28.67985287002165</v>
+        <v>20.82797944767601</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>28.67978415001432</v>
+        <v>24.23364195153421</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>28.67999379520838</v>
+        <v>25.59308629711015</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>28.6791704933687</v>
+        <v>16.9891972922376</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>28.67917370716754</v>
+        <v>19.31103974244808</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>28.67916680268077</v>
+        <v>20.57960977537573</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>28.68031734111185</v>
+        <v>17.45937210395735</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>28.68029094049196</v>
+        <v>19.67164241866559</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>28.68028477510392</v>
+        <v>20.97341107224815</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>28.67597927044335</v>
+        <v>20.49829616233045</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>28.67605202093156</v>
+        <v>22.36621401285262</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>28.6760492917941</v>
+        <v>23.21802352276092</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>28.67574285804937</v>
+        <v>20.7696328414244</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>28.67579991547069</v>
+        <v>23.82751104148955</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>28.67579673874162</v>
+        <v>25.14756394914646</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>28.67930453599675</v>
+        <v>30.1153675307624</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>28.67436318481568</v>
+        <v>33.49962162978055</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>28.67716576598083</v>
+        <v>37.8687047603161</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>28.67726193786256</v>
+        <v>38.60601283114131</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>28.67699249343377</v>
+        <v>34.03303037797289</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>28.6771010345218</v>
+        <v>41.04217491134273</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>28.67707294316191</v>
+        <v>42.24861000689606</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>28.6799058150133</v>
+        <v>24.95738813083867</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>28.67973562654108</v>
+        <v>34.41712482933861</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>28.67982593778014</v>
+        <v>35.81176948566804</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>28.67922969164709</v>
+        <v>33.96444308580732</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>28.67925687239815</v>
+        <v>39.82702329611089</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>28.67918999697621</v>
+        <v>40.77068364870716</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>28.68032911210979</v>
+        <v>31.89314584447541</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>28.68028799699649</v>
+        <v>37.61163804609932</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>28.6801571053227</v>
+        <v>38.49926295862334</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>28.67600632455101</v>
+        <v>43.39684398698535</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>28.67619983804849</v>
+        <v>47.65733934904394</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>28.67634590656579</v>
+        <v>48.37560499727712</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>28.67607522521236</v>
+        <v>43.82296729508732</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>28.67619269227154</v>
+        <v>50.63499346570476</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>28.67616301608603</v>
+        <v>51.80971131656281</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>28.68024467947061</v>
+        <v>27.13764388720974</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>28.67617076475806</v>
+        <v>30.13706648100036</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>28.67761812168705</v>
+        <v>34.53632059753883</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>28.67768871023502</v>
+        <v>35.34905297220705</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>28.67742821830778</v>
+        <v>30.78621548724245</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>28.67753159928385</v>
+        <v>37.83253427812349</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>28.67750767743459</v>
+        <v>39.15850359306455</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>28.6802503884306</v>
+        <v>22.5644291618104</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>28.68008491586806</v>
+        <v>32.01667119227763</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>28.68018751861791</v>
+        <v>33.542403373487</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>28.67959098956745</v>
+        <v>31.21141484590807</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>28.6796159481152</v>
+        <v>37.15909255480992</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>28.67956100625818</v>
+        <v>38.20545999749336</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>28.68065081945827</v>
+        <v>29.29796004006122</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>28.68061001283289</v>
+        <v>35.10132852542872</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>28.68050079083174</v>
+        <v>36.094723553398</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>28.67650904809955</v>
+        <v>40.53960614344551</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>28.67669309304317</v>
+        <v>44.84654873681392</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>28.67680797218641</v>
+        <v>45.63093468708701</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>28.67654476255983</v>
+        <v>41.02382511469786</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>28.67665660283632</v>
+        <v>47.90198522254687</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>28.67663205312834</v>
+        <v>49.17939302381797</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>28.68233817175395</v>
+        <v>26.37995967503843</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>28.67892358463839</v>
+        <v>25.40005454158408</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>28.67971199790107</v>
+        <v>28.14271519715607</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>28.67977166229535</v>
+        <v>29.22639420409089</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>28.67951871590577</v>
+        <v>25.27737655986605</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>28.67956730335412</v>
+        <v>29.64300130991847</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>28.67957427767841</v>
+        <v>31.42308426227979</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>28.68207614499046</v>
+        <v>27.80431166167017</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>28.68199920748966</v>
+        <v>33.18927407241915</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>28.68202992743455</v>
+        <v>35.09270622999859</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>28.68146369956047</v>
+        <v>33.11473423846521</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>28.68147753609444</v>
+        <v>37.06962875418968</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>28.68146368362398</v>
+        <v>38.42124343524083</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>28.68234110109454</v>
+        <v>31.82568770189816</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>28.68232495486673</v>
+        <v>35.78972733607655</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>28.68229736355248</v>
+        <v>37.29618208432022</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>28.67890059936963</v>
+        <v>37.21535406718429</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>28.67898620910103</v>
+        <v>40.07240638440992</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>28.67908275248039</v>
+        <v>41.20779296281529</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>28.67880875066799</v>
+        <v>36.69082232018621</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>28.67886623974685</v>
+        <v>41.22464217192216</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>28.67887565621819</v>
+        <v>43.0860975580519</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>28.68514173876772</v>
+        <v>18.21188854726232</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>28.68514078944535</v>
+        <v>19.8091612795653</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>28.68507617733054</v>
+        <v>20.14414447879561</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>28.68466071935902</v>
+        <v>16.28915396874577</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>28.68465816183601</v>
+        <v>17.24855030584231</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>28.68466636745685</v>
+        <v>17.66148904090184</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>28.6851505532264</v>
+        <v>16.87159312966667</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>28.68514186287566</v>
+        <v>17.90731094316158</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>28.68517263953026</v>
+        <v>18.37458987351448</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>28.68332306217591</v>
+        <v>17.07221642119207</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>28.68334132606842</v>
+        <v>17.99029592242818</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>28.68328375358007</v>
+        <v>18.23343725262502</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>28.68314908266934</v>
+        <v>17.2541716140284</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>28.68316469462831</v>
+        <v>18.79298936515604</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>28.68316484029529</v>
+        <v>19.15221092804408</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>28.68289368999375</v>
+        <v>19.33497076263282</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>28.68288014737597</v>
+        <v>22.23874059954262</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>28.68305745907418</v>
+        <v>23.28180778478814</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>28.68247578809128</v>
+        <v>15.6634580512747</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>28.68248092886325</v>
+        <v>17.63681122258324</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>28.68247496373819</v>
+        <v>18.73198713226824</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>28.68323682828785</v>
+        <v>16.12748415094448</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>28.68322078763995</v>
+        <v>18.02670502714026</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>28.68456095120549</v>
+        <v>17.82952538732188</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>28.68456385092957</v>
+        <v>21.89695325147072</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>28.68468291661165</v>
+        <v>22.39015929022189</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>28.6842560121808</v>
+        <v>19.38471508958438</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>28.68424438974276</v>
+        <v>21.20936760529641</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>28.68425673000928</v>
+        <v>21.69683986890903</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>28.68478317200148</v>
+        <v>19.26780526974446</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>28.68475624191053</v>
+        <v>21.21359295685183</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>28.68478777276992</v>
+        <v>21.78228332924829</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>28.6828186286573</v>
+        <v>20.98074405449164</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>28.68285787925313</v>
+        <v>22.9900001825645</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>28.68277494241785</v>
+        <v>23.23947838827034</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>28.682635583269</v>
+        <v>21.07759096636381</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>28.68267398373977</v>
+        <v>24.52640354692108</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>28.68267144068076</v>
+        <v>24.88544793543009</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>28.68258638203463</v>
+        <v>18.61528104345512</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>28.68254405239923</v>
+        <v>26.92841123954809</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>28.68316675175006</v>
+        <v>28.12003047663436</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>28.68278884735242</v>
+        <v>24.56990951296842</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>28.68281614956784</v>
+        <v>29.85549048738964</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>28.68277092216467</v>
+        <v>30.70951151410006</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>28.68344397515865</v>
+        <v>23.22602158696163</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>28.6834106212834</v>
+        <v>28.41162259069753</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>28.68504646130858</v>
+        <v>16.20092202473149</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>28.68506474888987</v>
+        <v>20.28239883837099</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>28.684860892075</v>
+        <v>20.81046385721862</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>28.68444913925474</v>
+        <v>17.95754865240518</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>28.68443924457458</v>
+        <v>19.78345495743984</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>28.68445148390372</v>
+        <v>20.33932341597828</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>28.68495429396713</v>
+        <v>17.94410143320811</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>28.68492958430278</v>
+        <v>19.90707607054473</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>28.68496041472495</v>
+        <v>20.54459606308827</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>28.6830798611872</v>
+        <v>19.43358860492286</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>28.6831181311615</v>
+        <v>21.43274941869073</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>28.68303253777995</v>
+        <v>21.71399187860725</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>28.68289994158375</v>
+        <v>19.57417068959768</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>28.6829367478797</v>
+        <v>23.00280184509732</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>28.68293438462</v>
+        <v>23.40601554620009</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>28.6828446959639</v>
+        <v>16.01768464725647</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>28.68280401045184</v>
+        <v>24.30895168391882</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>28.68334007174111</v>
+        <v>25.62419851781864</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>28.68294639608363</v>
+        <v>21.66196760137737</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>28.68297256335423</v>
+        <v>27.00950008301142</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>28.68293503828939</v>
+        <v>27.9548549034732</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>28.68358862592856</v>
+        <v>20.44777789075908</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>28.68355663296554</v>
+        <v>25.69652658439051</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>28.68591985350878</v>
+        <v>16.59139777071875</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>28.68592438603761</v>
+        <v>18.98120152170444</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>28.68593644476481</v>
+        <v>19.6570742785059</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>28.68564488558841</v>
+        <v>17.27615119884637</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>28.6856423804094</v>
+        <v>18.50643094075147</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>28.68564917176798</v>
+        <v>19.01645666134197</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>28.68602254994209</v>
+        <v>17.36623067973906</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>28.68601232007338</v>
+        <v>18.61379207610417</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>28.6860272271177</v>
+        <v>19.20124988147951</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>28.68460113861087</v>
+        <v>18.23123107219756</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>28.68462231076178</v>
+        <v>19.40550964903274</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>28.68459762151388</v>
+        <v>19.82347335216323</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>28.68448838201385</v>
+        <v>18.5473477566286</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>28.68450770562657</v>
+        <v>20.51986243041954</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>28.6845076303185</v>
+        <v>21.19917874584268</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>28.68423472438538</v>
+        <v>19.24651603460794</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>28.68421800845007</v>
+        <v>23.83878764474802</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>28.68439674128704</v>
+        <v>25.50178389346753</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>28.68400216545674</v>
+        <v>21.79702877729353</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>28.68401573625055</v>
+        <v>25.11649898624873</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>28.68400800265517</v>
+        <v>26.26213453415956</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>28.68456616517961</v>
+        <v>21.22080338895201</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>28.68455568285611</v>
+        <v>24.5638807977766</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>28.68286107280992</v>
+        <v>19.15310198548349</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>28.67974943519782</v>
+        <v>18.70903540548256</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>28.68047464193923</v>
+        <v>20.33837772015529</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>28.68041855865711</v>
+        <v>21.05287157783366</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>28.6802230700496</v>
+        <v>19.12193378174855</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>28.68026155460738</v>
+        <v>21.80021482185031</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>28.6802624922422</v>
+        <v>22.89627674294421</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>28.68238507501648</v>
+        <v>21.32056010900159</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>28.68232806868109</v>
+        <v>24.34866998136206</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>28.68251809103278</v>
+        <v>25.61113277937456</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>28.68190879467027</v>
+        <v>17.88226078801839</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>28.68191453167422</v>
+        <v>19.96294361022845</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>28.68190734204093</v>
+        <v>21.13220104891647</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>28.68273872263909</v>
+        <v>18.33674756250776</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>28.68271834264215</v>
+        <v>20.31970185132601</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>28.68270649964209</v>
+        <v>21.52426503373587</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>28.67967998368072</v>
+        <v>20.93953425221111</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>28.67974363105028</v>
+        <v>22.61441181058246</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>28.67969746579758</v>
+        <v>23.39707655280583</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>28.67948943098462</v>
+        <v>21.16885304437831</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>28.6795361918396</v>
+        <v>23.91000004796736</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>28.67953729470327</v>
+        <v>25.12198187314869</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>28.68207446617576</v>
+        <v>29.22171931585135</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>28.67857127389638</v>
+        <v>32.3362469799692</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>28.68101032140579</v>
+        <v>36.23385899872418</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>28.68101516329091</v>
+        <v>36.88954063755743</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>28.6808533354948</v>
+        <v>32.8890728399886</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>28.68095956625437</v>
+        <v>39.13153515384198</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>28.68093867933292</v>
+        <v>40.20321196860542</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>28.68277485288291</v>
+        <v>24.79835563704117</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>28.68261247626318</v>
+        <v>33.2070791332215</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>28.68272444470312</v>
+        <v>34.44054334250338</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>28.6823585413124</v>
+        <v>32.80661476971461</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>28.68239129142663</v>
+        <v>38.06995882113432</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>28.68233147241837</v>
+        <v>38.90058707507966</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>28.68307282606538</v>
+        <v>30.96033558384358</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>28.68303638978282</v>
+        <v>36.08405267378905</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>28.68293289503383</v>
+        <v>36.87416666640688</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>28.68028536767098</v>
+        <v>41.30428701861641</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>28.68046945664907</v>
+        <v>45.10926952587111</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>28.68052650459787</v>
+        <v>45.74327666386857</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>28.68036919343222</v>
+        <v>41.74093121973365</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>28.68048323903236</v>
+        <v>47.81647097859815</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>28.68045970887565</v>
+        <v>48.85330191244849</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>28.68284131461431</v>
+        <v>26.59805182652971</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>28.68010453710999</v>
+        <v>29.38492616814595</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>28.68123669146085</v>
+        <v>33.30717959772798</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>28.6812112278975</v>
+        <v>34.02799130874767</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>28.68105482955023</v>
+        <v>30.04160487138105</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>28.68115509312407</v>
+        <v>36.31418820028492</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>28.68113784651278</v>
+        <v>37.48945192735163</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>28.68294746607189</v>
+        <v>22.68840988987147</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>28.68279068488499</v>
+        <v>31.08507360983466</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>28.68292271438352</v>
+        <v>32.43348369404733</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>28.68253616907943</v>
+        <v>30.38229574101388</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>28.68256611529904</v>
+        <v>35.71518994011177</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>28.68251753497582</v>
+        <v>36.63353550772063</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>28.68323173414696</v>
+        <v>28.67489680330957</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>28.68319559507366</v>
+        <v>33.86587759186353</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>28.68311428517867</v>
+        <v>34.7477202227677</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>28.68054930999839</v>
+        <v>38.79342748069784</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>28.68072357097066</v>
+        <v>42.63567679197561</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>28.68074296422711</v>
+        <v>43.32731401089946</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>28.68059011318141</v>
+        <v>39.28465345427365</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>28.68069758260938</v>
+        <v>45.41292456129135</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>28.68067838552388</v>
+        <v>46.53966897702077</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>28.68426541727262</v>
+        <v>25.83519745893145</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>28.6818727666555</v>
+        <v>24.93920014147503</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>28.6824456475343</v>
+        <v>27.37083964874826</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>28.68245741390757</v>
+        <v>28.32885214319499</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>28.68228541824305</v>
+        <v>24.87610158489363</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>28.6823306868053</v>
+        <v>28.74745702294296</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>28.68233912881678</v>
+        <v>30.31913491441308</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>28.68409327278717</v>
+        <v>27.08056001667509</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>28.68402291717482</v>
+        <v>31.84145585271466</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>28.68408318086552</v>
+        <v>33.53863751333981</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>28.68369510762137</v>
+        <v>31.71481959937077</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>28.68370927635201</v>
+        <v>35.22502185197663</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>28.68369873308445</v>
+        <v>36.41298138079321</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>28.68429262274379</v>
+        <v>30.60510183781861</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>28.68427812379218</v>
+        <v>34.11199684610467</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>28.68426309207346</v>
+        <v>35.4442100064792</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>28.68194944703342</v>
+        <v>35.40738473939757</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>28.68202767546103</v>
+        <v>37.93388312931197</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>28.68207498046874</v>
+        <v>38.93401067149471</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>28.68188950095559</v>
+        <v>35.00530108252481</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>28.6819422813755</v>
+        <v>39.0121497815481</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>28.68195261369249</v>
+        <v>40.65261303605117</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>28.68590671845192</v>
+        <v>20.31767178533277</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>28.68590602899895</v>
+        <v>22.0640938286047</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>28.68583448557163</v>
+        <v>22.44981494354916</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>28.68550103490802</v>
+        <v>18.8214260230518</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>28.68549950965709</v>
+        <v>19.88769132509753</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>28.68550602120744</v>
+        <v>20.36001161705493</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>28.68589447615412</v>
+        <v>19.27444346761528</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>28.68588859248898</v>
+        <v>20.39100517204369</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>28.68591051606658</v>
+        <v>20.92728992109907</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>28.68444199643361</v>
+        <v>19.72560765941545</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>28.6844545642592</v>
+        <v>20.74535819938583</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>28.68440420298952</v>
+        <v>21.02726854468582</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>28.68429870667271</v>
+        <v>19.75499126005153</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>28.68430930861869</v>
+        <v>21.46585005859969</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>28.68430990095966</v>
+        <v>21.88400940442391</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>28.68410488936266</v>
+        <v>19.32306258600149</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>28.68409586401367</v>
+        <v>22.38679224242327</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>28.68416450474071</v>
+        <v>23.44240602295192</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>28.68367870530716</v>
+        <v>15.43832114652451</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>28.68368175468185</v>
+        <v>17.51155502942909</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>28.68368216828627</v>
+        <v>18.70483081267161</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>28.68429717660335</v>
+        <v>15.87405368658949</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>28.68428640397856</v>
+        <v>17.89583831352074</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>28.68543705872886</v>
+        <v>22.6311483019462</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>28.68543905221392</v>
+        <v>26.933578272895</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>28.68545381031723</v>
+        <v>27.44282518975846</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>28.68509803673481</v>
+        <v>25.98965342873515</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>28.68509051571053</v>
+        <v>27.98372415348584</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>28.68510123960507</v>
+        <v>28.44923586607526</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>28.68553265850575</v>
+        <v>25.27827465166275</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>28.68551462543359</v>
+        <v>27.37541542050317</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>28.68553719421856</v>
+        <v>27.92422300892798</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>28.68395129954279</v>
+        <v>28.32232016960428</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>28.68397783482547</v>
+        <v>30.47016824198397</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>28.68389437355281</v>
+        <v>30.67851706832775</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>28.68378574109227</v>
+        <v>28.30045007802559</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>28.68381078686532</v>
+        <v>31.97546392898951</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>28.68381152095665</v>
+        <v>32.26102398170745</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>28.68383221213217</v>
+        <v>22.20347519344588</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>28.68380275079348</v>
+        <v>30.86791368876814</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>28.6841302497539</v>
+        <v>32.13852415807164</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>28.68377121282437</v>
+        <v>29.59944331675059</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>28.68379438005316</v>
+        <v>35.24484665723499</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>28.68376869844382</v>
+        <v>36.11862639826589</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>28.68431799915939</v>
+        <v>27.94219905747447</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>28.68429764204701</v>
+        <v>33.4672650739366</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>28.68579687340212</v>
+        <v>20.58858277437075</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>28.68559920615698</v>
+        <v>24.91266064062204</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>28.68560211628626</v>
+        <v>25.46111253977494</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>28.68525967787165</v>
+        <v>24.0927562641153</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>28.68526230007623</v>
+        <v>26.11212447812119</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>28.68526362466464</v>
+        <v>26.63601640012923</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>28.68567587947663</v>
+        <v>23.49784019870253</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>28.68567842408016</v>
+        <v>25.63301240398392</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>28.68568068940261</v>
+        <v>26.24275033789917</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>28.68416757277608</v>
+        <v>26.31166900985972</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>28.68410936582201</v>
+        <v>28.46590727051682</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>28.68410964235226</v>
+        <v>28.69859437604821</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>28.68400634303028</v>
+        <v>26.35562694951019</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>28.68403051085371</v>
+        <v>30.035891006502</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>28.68403105024288</v>
+        <v>30.35387990368371</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>28.68404157002945</v>
+        <v>19.25616972655403</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>28.68429315284946</v>
+        <v>27.88935173257185</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>28.68428059974264</v>
+        <v>29.29425065205679</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>28.68391108463512</v>
+        <v>26.29669322894259</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>28.6839365532581</v>
+        <v>31.99711310516082</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>28.68391229416249</v>
+        <v>32.96453842828894</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>28.68444488457162</v>
+        <v>24.78168957172904</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>28.68443978693454</v>
+        <v>30.3595758354303</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>28.68652513474404</v>
+        <v>18.94793407009766</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>28.68651576060788</v>
+        <v>21.48864229209965</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>28.68651632749743</v>
+        <v>22.17396076925519</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>28.6862821685721</v>
+        <v>20.67943564719053</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>28.68628472934708</v>
+        <v>22.04402133898843</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>28.68628551106256</v>
+        <v>22.54104548251766</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>28.686585157896</v>
+        <v>20.47422027208506</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>28.68658693533787</v>
+        <v>21.84923529091414</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>28.6865877938442</v>
+        <v>22.44221326402146</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>28.68545457396625</v>
+        <v>21.91451805719655</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>28.68544678573606</v>
+        <v>23.20108431894941</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>28.685447203794</v>
+        <v>23.60045711110942</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>28.68536148745458</v>
+        <v>22.13503492609051</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>28.68537453211051</v>
+        <v>24.29007412361197</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>28.6853751039448</v>
+        <v>24.93566764221395</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>28.68517613066969</v>
+        <v>20.08276203194087</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>28.6852459290199</v>
+        <v>24.8761703788747</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>28.68524432640199</v>
+        <v>26.64948547491571</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>28.68490828881768</v>
+        <v>23.35917381108289</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>28.68492374267719</v>
+        <v>26.85995811221547</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>28.68491660517226</v>
+        <v>28.03544101673711</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>28.68536130998083</v>
+        <v>22.61124317689588</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>28.68536698431108</v>
+        <v>26.11834504081525</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>28.68410698746905</v>
+        <v>19.1192977397202</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>28.68202808981152</v>
+        <v>18.7199306328661</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>28.68200624182606</v>
+        <v>20.35788215364599</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>28.68200551488618</v>
+        <v>21.13010546239092</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>28.68184928389202</v>
+        <v>19.19259756837969</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>28.68187320081963</v>
+        <v>21.86675497831241</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>28.68187569843804</v>
+        <v>23.04768040903525</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>28.68362944196536</v>
+        <v>20.55835940886179</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>28.6837228059438</v>
+        <v>23.71368453217358</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>28.68372675768128</v>
+        <v>25.0139237616348</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>28.68321645317884</v>
+        <v>17.00730485031373</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>28.68321699265015</v>
+        <v>19.17476434146246</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>28.6832196243643</v>
+        <v>20.46075880432634</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>28.68389168050182</v>
+        <v>17.40756651498698</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>28.68387207207729</v>
+        <v>19.50458993138241</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>28.68387637777104</v>
+        <v>20.82910402508313</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>28.68142345917256</v>
+        <v>20.33148400082354</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>28.6814149375801</v>
+        <v>22.01276663814665</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>28.68141502168005</v>
+        <v>22.87060996933587</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>28.68124830303628</v>
+        <v>20.67658706460885</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>28.68127765101803</v>
+        <v>23.41156248828178</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>28.68128130268536</v>
+        <v>24.73752225811405</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>28.68347162238875</v>
+        <v>34.31236342933234</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>28.68221349499083</v>
+        <v>37.93206647546811</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>28.68229429472487</v>
+        <v>42.0367329473208</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>28.68227847478747</v>
+        <v>42.71455914407444</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>28.68215237321283</v>
+        <v>38.30862622697187</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>28.68222805738752</v>
+        <v>44.86021716551751</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>28.68221496505891</v>
+        <v>45.97087815739835</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>28.68380120567952</v>
+        <v>28.38409388796788</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>28.68379260479524</v>
+        <v>37.18109431452626</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>28.68378031181493</v>
+        <v>38.46362937886585</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>28.68342714177237</v>
+        <v>37.69800320170083</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>28.68344377677477</v>
+        <v>43.34808292464437</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>28.68341939186402</v>
+        <v>44.18036482865512</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>28.68401851856407</v>
+        <v>35.56114405140655</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>28.68395719684569</v>
+        <v>41.05421275171038</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>28.68393992681631</v>
+        <v>41.85617007345111</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>28.68177097168627</v>
+        <v>46.72031570463481</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>28.68190632150336</v>
+        <v>50.74527054517436</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>28.6818903750831</v>
+        <v>51.39953233089316</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>28.68176922975687</v>
+        <v>46.96205051517781</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>28.68185194869683</v>
+        <v>53.36496041116575</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>28.68183659208692</v>
+        <v>54.44129182498651</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>28.6840283186508</v>
+        <v>31.30021698308131</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>28.68241862353963</v>
+        <v>34.59438068215761</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>28.68246758083305</v>
+        <v>38.7160384579152</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>28.68245338644152</v>
+        <v>39.46719932430052</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>28.6823330439715</v>
+        <v>35.0997075906028</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>28.68240380543859</v>
+        <v>41.66900987809102</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>28.68239299084137</v>
+        <v>42.89850528796074</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>28.68394660131022</v>
+        <v>25.97689865899652</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>28.68395821084831</v>
+        <v>34.75167497757996</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>28.68394845489912</v>
+        <v>36.15455579705436</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>28.68358072076208</v>
+        <v>34.97769787402829</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>28.68359935233396</v>
+        <v>40.6889058671733</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>28.68357805449676</v>
+        <v>41.60823150010117</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>28.68415440467507</v>
+        <v>32.9771916686509</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>28.68410709042109</v>
+        <v>38.52577386210422</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>28.68409253480506</v>
+        <v>39.42135830807895</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>28.68199755432996</v>
+        <v>43.9411753718443</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>28.68209237313018</v>
+        <v>47.99404438919241</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>28.68207852200658</v>
+        <v>48.71205767439078</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>28.68196283929964</v>
+        <v>44.26715623432085</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>28.68203973678474</v>
+        <v>50.70731827558228</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>28.68202714158301</v>
+        <v>51.88546906136865</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>28.68522097733113</v>
+        <v>27.45011554127317</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>28.68362915092211</v>
+        <v>26.85895594409604</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>28.68365833288189</v>
+        <v>29.38340806484872</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>28.68365756187562</v>
+        <v>30.35903309077237</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>28.68352633410243</v>
+        <v>26.78259833616331</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>28.68355734370425</v>
+        <v>30.78848322636404</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>28.68356484280325</v>
+        <v>32.38981269494023</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>28.68498193488672</v>
+        <v>27.83718465571567</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>28.68499169038516</v>
+        <v>32.79755544584138</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>28.68498842738333</v>
+        <v>34.56211020787726</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>28.684655935832</v>
+        <v>33.11600746401439</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>28.68466952751688</v>
+        <v>36.78409733742276</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>28.68466358252328</v>
+        <v>37.99661809880432</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>28.68513536802507</v>
+        <v>31.84356666418983</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>28.68512834482957</v>
+        <v>35.49856203526703</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>28.68512582701559</v>
+        <v>36.87074613588278</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>28.68328330726365</v>
+        <v>37.16504439343113</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>28.6833443639738</v>
+        <v>39.76217907699727</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>28.68334509252038</v>
+        <v>40.78882368353231</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>28.68320520017983</v>
+        <v>36.76518006430559</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>28.68324155932859</v>
+        <v>40.87061954019765</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>28.6832504697979</v>
+        <v>42.55776792889637</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>28.68587152846238</v>
+        <v>23.2416063947845</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>28.68580571206119</v>
+        <v>24.44049804904321</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>28.68580286921282</v>
+        <v>24.70294675681976</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>28.68548000654975</v>
+        <v>22.3010428808369</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>28.68548223597634</v>
+        <v>23.019080365808</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>28.68548121648723</v>
+        <v>23.33802276984753</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>28.68588282159237</v>
+        <v>22.59081578753987</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>28.68589239128023</v>
+        <v>23.36265107936853</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>28.68589174708661</v>
+        <v>23.72465868490416</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>28.68436757961015</v>
+        <v>22.90755245621748</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>28.6843602651691</v>
+        <v>23.60146800266793</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>28.68435928287885</v>
+        <v>23.78809974271435</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>28.68424422714726</v>
+        <v>22.91189548066759</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>28.68425161210164</v>
+        <v>24.07704431973514</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>28.68425058794193</v>
+        <v>24.3522938100137</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>28.68396572855895</v>
+        <v>22.8563300132485</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>28.68409103666405</v>
+        <v>24.95530980585241</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>28.68408596534153</v>
+        <v>25.71647232630206</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>28.6836083208021</v>
+        <v>20.34930257324627</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>28.68360851660219</v>
+        <v>21.79030420222792</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>28.68360229086631</v>
+        <v>22.60157375629066</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>28.68425078570341</v>
+        <v>20.67867756079411</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>28.68423493533865</v>
+        <v>22.06676243784417</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>28.6853739538329</v>
+        <v>24.94287594766664</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>28.68544354018168</v>
+        <v>27.99622457291028</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>28.68544314916752</v>
+        <v>28.37273715633343</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>28.68509194944277</v>
+        <v>27.03901285403977</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>28.68509012572889</v>
+        <v>28.44197923772587</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>28.68508909020249</v>
+        <v>28.816131660671</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>28.68554016892615</v>
+        <v>26.6211464238684</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>28.68553992836068</v>
+        <v>28.12125452206107</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>28.68554081501555</v>
+        <v>28.55571794086105</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>28.68384563608145</v>
+        <v>28.44658196213851</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>28.68384761567017</v>
+        <v>29.9536745883746</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>28.68384402338782</v>
+        <v>30.13622855090353</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>28.68371686085947</v>
+        <v>28.32342504730973</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>28.68373461398882</v>
+        <v>30.90063857602945</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>28.68372933105866</v>
+        <v>31.15890834986343</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>28.68340944902799</v>
+        <v>21.08693375308845</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>28.68383501444853</v>
+        <v>27.03348928802615</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>28.68382112475527</v>
+        <v>27.89437888619996</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>28.68340845337611</v>
+        <v>25.24010156594747</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>28.6834054190665</v>
+        <v>29.04879405855759</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>28.68338783908346</v>
+        <v>29.67401497436743</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>28.68406541932631</v>
+        <v>24.32085237061281</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>28.68401580425282</v>
+        <v>28.04029676938311</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>28.68567690908496</v>
+        <v>23.65619936213534</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>28.68559659248398</v>
+        <v>26.71948908703088</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>28.68559609712747</v>
+        <v>27.12925183227345</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>28.68526014058676</v>
+        <v>25.88903009971123</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>28.68525919970878</v>
+        <v>27.29556388530783</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>28.6852583901663</v>
+        <v>27.71929302382711</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>28.6856876752084</v>
+        <v>25.54811971352803</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>28.6856888471942</v>
+        <v>27.06124352647444</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>28.6856897859571</v>
+        <v>27.54757592151579</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>28.68407411185079</v>
+        <v>27.21436577006942</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>28.68407305942905</v>
+        <v>28.71724839859469</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>28.68406983417585</v>
+        <v>28.92043035366454</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>28.68394886153093</v>
+        <v>27.13033389840708</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>28.68396563059921</v>
+        <v>29.69826059565443</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>28.68396087521583</v>
+        <v>29.98402739462598</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>28.68365218214932</v>
+        <v>19.28584092364879</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>28.68403350087635</v>
+        <v>25.22023833582325</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>28.68402198418629</v>
+        <v>26.16458554637696</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>28.68361885769719</v>
+        <v>23.22766783611805</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>28.68361684604032</v>
+        <v>27.08116521334401</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>28.68360201265956</v>
+        <v>27.76514989914103</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>28.68425353248698</v>
+        <v>22.3990292020079</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>28.68420659127802</v>
+        <v>26.16320875027853</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>28.68646175284898</v>
+        <v>22.77241997179569</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>28.68646561906392</v>
+        <v>24.58361569290609</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>28.68646498418944</v>
+        <v>25.05803295871613</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>28.68622274039106</v>
+        <v>23.77318271878558</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>28.68622393762378</v>
+        <v>24.73963557024822</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>28.68622412240259</v>
+        <v>25.10316451421883</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>28.68653779331985</v>
+        <v>23.6439344932841</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>28.68653930528207</v>
+        <v>24.62948499434003</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>28.68653995446582</v>
+        <v>25.04775168834049</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>28.68535427784648</v>
+        <v>24.59322214930312</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>28.6853552614544</v>
+        <v>25.49684488009096</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>28.68535457388595</v>
+        <v>25.78780338687086</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>28.68526392704011</v>
+        <v>24.67528944334676</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>28.68527268629977</v>
+        <v>26.18699351216369</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>28.68527173902041</v>
+        <v>26.65722694728855</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>28.68500099158338</v>
+        <v>22.17423094461765</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>28.68513245250815</v>
+        <v>25.52655667925432</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>28.68513040558576</v>
+        <v>26.68792409836062</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>28.68478032729126</v>
+        <v>24.20587345491851</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>28.68478088447137</v>
+        <v>26.63205908043585</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>28.68477659949584</v>
+        <v>27.41000217252468</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>28.6852808028209</v>
+        <v>23.76096741139853</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>28.68526126447068</v>
+        <v>26.19928173637611</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>28.68404363223982</v>
+        <v>22.90488970000035</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>28.68185485815306</v>
+        <v>22.50041856599271</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>28.68187801955033</v>
+        <v>23.67903820334082</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>28.68187450089582</v>
+        <v>24.19600394551264</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>28.68169765334392</v>
+        <v>22.72045011374495</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>28.68171794593176</v>
+        <v>24.65384286948376</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>28.68171651590665</v>
+        <v>25.44173876680378</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.68356683156554</v>
+        <v>24.33235206863609</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>28.68361722262075</v>
+        <v>26.52781024859092</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>28.68361175280679</v>
+        <v>27.46833927402601</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>28.68309575730592</v>
+        <v>22.03407446635142</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>28.68309487315334</v>
+        <v>23.55280152893627</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>28.68308843343055</v>
+        <v>24.43252883100367</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>28.68380197337001</v>
+        <v>22.35014106185564</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>28.68377846958781</v>
+        <v>23.80204006187082</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>28.68377399833926</v>
+        <v>24.71466432300188</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>28.68116971376902</v>
+        <v>24.17820551088709</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>28.68120269712444</v>
+        <v>25.39316040307747</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>28.68119787633557</v>
+        <v>25.97196018906808</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>28.68100498235405</v>
+        <v>24.25371481080712</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>28.68102945917023</v>
+        <v>26.2390999905436</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>28.68102585880342</v>
+        <v>27.13121026177706</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>28.68336150728758</v>
+        <v>28.63457118371</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>28.68150765464431</v>
+        <v>30.88714044506099</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>28.68165719367669</v>
+        <v>33.69153819182923</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>28.68164640324729</v>
+        <v>34.16464721193977</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>28.68145261759887</v>
+        <v>31.31365781287885</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>28.68149926677037</v>
+        <v>35.80311736706702</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>28.68148953957365</v>
+        <v>36.57422957983366</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>28.68336170372127</v>
+        <v>25.82016789448884</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>28.68332929356074</v>
+        <v>31.86205242581825</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>28.68335770715861</v>
+        <v>32.73743125247506</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>28.68283424954885</v>
+        <v>31.4975739599634</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>28.68285918842762</v>
+        <v>35.30372076895441</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>28.68279089014324</v>
+        <v>35.89743178141737</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>28.68349965774569</v>
+        <v>30.19988020873679</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>28.68352762684572</v>
+        <v>33.89139469168666</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>28.68348461898008</v>
+        <v>34.45601995660995</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>28.68092550769697</v>
+        <v>37.67256213645039</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>28.6809446407122</v>
+        <v>40.41734742810141</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>28.68092770265915</v>
+        <v>40.86524003656749</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>28.68072119579581</v>
+        <v>37.9989567678946</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>28.68076840196913</v>
+        <v>42.37871190065562</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>28.67988339238547</v>
+        <v>43.10972364582413</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>28.68414457554648</v>
+        <v>26.81752702517798</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>28.68191491464539</v>
+        <v>28.84607861464729</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>28.68193420415678</v>
+        <v>31.66749986793715</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>28.68191781126289</v>
+        <v>32.18468404507804</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>28.68173792426534</v>
+        <v>29.3454408536701</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>28.68178282246156</v>
+        <v>33.85542263130129</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>28.68179507301548</v>
+        <v>34.69729991261363</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>28.68349951508199</v>
+        <v>24.35807698578236</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>28.68355894764185</v>
+        <v>30.39101754185367</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>28.68358328196898</v>
+        <v>31.34690707624182</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>28.68307931704667</v>
+        <v>29.82748042467649</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>28.6831033966106</v>
+        <v>33.68153754685012</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>28.68304309187503</v>
+        <v>34.33196757624289</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>28.68372114521628</v>
+        <v>28.62530684927001</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>28.68374809408635</v>
+        <v>32.3615328516151</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>28.68371009413134</v>
+        <v>32.98779014587475</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>28.68124506287101</v>
+        <v>35.94602953124324</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>28.68126347181778</v>
+        <v>38.71517022438481</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>28.68124862115116</v>
+        <v>39.20265447657915</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>28.6810485649521</v>
+        <v>36.31212610778711</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>28.68109447837135</v>
+        <v>40.72583679127585</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>28.67973637375329</v>
+        <v>41.51942718009278</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>28.68523775177195</v>
+        <v>27.07129389080763</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>28.68342643272694</v>
+        <v>26.51966967558572</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>28.68343506242464</v>
+        <v>28.29190122986528</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>28.68343198821466</v>
+        <v>28.94515192707638</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>28.6832816594223</v>
+        <v>26.46642277308008</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>28.68330187072549</v>
+        <v>29.28660888883913</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>28.6833532387217</v>
+        <v>30.35995426141272</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>28.68478025244503</v>
+        <v>27.60158526648442</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>28.68480347899011</v>
+        <v>31.06544795403747</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>28.68481563335979</v>
+        <v>32.24019036849114</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>28.68441381376667</v>
+        <v>31.06037545602701</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>28.68442441663693</v>
+        <v>33.61729988687106</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>28.68440514763056</v>
+        <v>34.42397358578416</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>28.68493308244411</v>
+        <v>30.2427219606715</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>28.68494534665892</v>
+        <v>32.79236530021131</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>28.68491687008416</v>
+        <v>33.70159885579131</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>28.68295083966456</v>
+        <v>33.78710233107198</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>28.68296002546358</v>
+        <v>35.61994668419734</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>28.68295838666884</v>
+        <v>36.30404687223786</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>28.68278927736455</v>
+        <v>33.51063235244164</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>28.68281200400204</v>
+        <v>36.41522133268714</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>28.68228144168053</v>
+        <v>37.53936495918036</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/additive/ranking_test4/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/additive/ranking_test4/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.5291461889971956</v>
+        <v>0.5291461889838942</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>28.01632320022102</v>
+        <v>28.0163232002483</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>34.66962992236702</v>
+        <v>34.66962992232359</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>12.06257368593085</v>
+        <v>12.06257368592812</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>22.02767520989769</v>
+        <v>22.02767520991042</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>26.54427258857108</v>
+        <v>26.54427258852288</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>18.61169229233339</v>
+        <v>18.61169229228997</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>26.35577508933502</v>
+        <v>26.35577508932069</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.64682261076805</v>
+        <v>29.64682261065277</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>30.41179061579125</v>
+        <v>30.41179061576238</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>36.581980112877</v>
+        <v>36.58198011284448</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>39.01033021729122</v>
+        <v>39.01033021721914</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>20.42033702105325</v>
+        <v>20.42033702101141</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>35.55101302919129</v>
+        <v>35.55101302913706</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>40.8241468629873</v>
+        <v>40.82414686294398</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6.570876228742485</v>
+        <v>6.570876228712244</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>34.06096701329422</v>
+        <v>34.06096701327888</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>40.71505235997281</v>
+        <v>40.71505235995837</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>18.10476296837648</v>
+        <v>18.10476296832987</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>28.07200814651596</v>
+        <v>28.0720081464872</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>32.58906820153597</v>
+        <v>32.58906820150698</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>24.65524024474282</v>
+        <v>24.655240244741</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>32.40092471526341</v>
+        <v>32.40092471521884</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4.645536624325381</v>
+        <v>4.645536624267628</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>32.13292454683792</v>
+        <v>32.13292454680177</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>38.78623633561383</v>
+        <v>38.786236335592</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>16.17931756392502</v>
+        <v>16.17931756392729</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>26.14453052119361</v>
+        <v>26.14453052111073</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>30.66112424335838</v>
+        <v>30.66112424334985</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>22.72852435451616</v>
+        <v>22.72852435451093</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>30.47270138378851</v>
+        <v>30.47270138373303</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>33.76374593782182</v>
+        <v>33.76374593778907</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>34.52876323889725</v>
+        <v>34.52876323884677</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>40.69900463859906</v>
+        <v>40.69900463853926</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>43.12735761020738</v>
+        <v>43.1273576101494</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>24.537197927599</v>
+        <v>24.53719792759764</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>39.66801978690162</v>
+        <v>39.66801978684796</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>44.94115629829846</v>
+        <v>44.94115629824753</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>10.68780946062386</v>
+        <v>10.68780946050722</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>38.17811117364786</v>
+        <v>38.17811117361853</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>44.83220158917188</v>
+        <v>44.83220158911276</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>22.2220496772725</v>
+        <v>22.22204967720702</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>32.1894063012842</v>
+        <v>32.18940630124782</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>36.70646270105956</v>
+        <v>36.70646270097225</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>36.51839386280826</v>
+        <v>36.51839386275005</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>7.114094532479633</v>
+        <v>7.114094532556486</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>34.60148282704122</v>
+        <v>34.60148282707816</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>41.25478087882325</v>
+        <v>41.25478087891499</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>18.64803581575872</v>
+        <v>18.64803581567914</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>28.61327178489696</v>
+        <v>28.61327178488195</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>33.12985319648273</v>
+        <v>33.12985319653549</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>25.19725783838728</v>
+        <v>25.19725783831452</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>32.94145610545936</v>
+        <v>32.94145610543037</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>36.23249353921599</v>
+        <v>36.23249353925157</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>36.99751017932592</v>
+        <v>36.9975101792834</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>43.16775473382474</v>
+        <v>43.16775473381042</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>45.59610343756483</v>
+        <v>45.59610343757961</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>27.00592186701626</v>
+        <v>27.00592186697261</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>42.13676233865251</v>
+        <v>42.13676233867081</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>47.40988919231611</v>
+        <v>47.40988919227348</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>13.15663918050384</v>
+        <v>13.15663918044336</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>40.64694126406018</v>
+        <v>40.64694126406643</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>47.3010179409787</v>
+        <v>47.30101794103066</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>24.69103975534428</v>
+        <v>24.69103975528721</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>34.65841938957183</v>
+        <v>34.65841938951396</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>39.17546347782436</v>
+        <v>39.17546347772716</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>31.24162046259541</v>
+        <v>31.24162046261178</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>38.98742041149571</v>
+        <v>38.98742041147388</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>2.368199104311792</v>
+        <v>2.368199104391827</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>29.85551082251506</v>
+        <v>29.85551082255872</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>36.50884168151085</v>
+        <v>36.5088416815254</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>13.90183463594465</v>
+        <v>13.9018346359667</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>23.8670164166763</v>
+        <v>23.86701641672712</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>28.3836301078243</v>
+        <v>28.38363010775279</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>20.45098710011759</v>
+        <v>20.45098710011236</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>28.19513486814983</v>
+        <v>28.1951348681089</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>31.48619693026037</v>
+        <v>31.48619693018943</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>32.25116932582321</v>
+        <v>32.25116932570679</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>38.42139307871846</v>
+        <v>38.42139307861114</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>40.84975409396477</v>
+        <v>40.84975409385677</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>22.25964702496142</v>
+        <v>22.25964702494141</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>37.39041817603233</v>
+        <v>37.39041817604154</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>42.66357550866328</v>
+        <v>42.6635755086161</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>8.410210975457879</v>
+        <v>8.410210975311905</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>35.9004364774569</v>
+        <v>35.90043647744201</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>42.55454596309553</v>
+        <v>42.55454596302948</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>19.94430576590141</v>
+        <v>19.94430576583593</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>29.91163120944989</v>
+        <v>29.91163120942806</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>34.42870757805044</v>
+        <v>34.42870757797768</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>26.49481690731388</v>
+        <v>26.49481690731752</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>34.24056635510308</v>
+        <v>34.24056635512115</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>35.69231300981928</v>
+        <v>35.6923130098311</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>36.45768298630949</v>
+        <v>36.45768298636769</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>42.62884656238329</v>
+        <v>42.62884656233339</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>45.05751406996651</v>
+        <v>45.05751406995207</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>26.46521321982711</v>
+        <v>26.4652132198162</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>41.59807613127796</v>
+        <v>41.59807613124158</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>46.8720161049911</v>
+        <v>46.87201610493039</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>14.96918417713916</v>
+        <v>14.96918417718236</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>42.45914256034907</v>
+        <v>42.45914256037988</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>49.11316736940298</v>
+        <v>49.11316736937444</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>26.50356708623897</v>
+        <v>26.50356708620713</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>36.47113776979145</v>
+        <v>36.47113776974142</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>40.98823846314612</v>
+        <v>40.988238463077</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>33.05431354457803</v>
+        <v>33.05431354457826</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>40.80026270402359</v>
+        <v>40.80026270400733</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>44.09163653160694</v>
+        <v>44.0916365315634</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>44.85745575400667</v>
+        <v>44.85745575405692</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>51.02869743503313</v>
+        <v>51.02869743500596</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>53.45738732797533</v>
+        <v>53.45738732796089</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>34.86495536753684</v>
+        <v>34.86495536752252</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>49.99800733443819</v>
+        <v>49.99800733446798</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>55.27201275561449</v>
+        <v>55.27201275562245</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>39.80977919108695</v>
+        <v>39.80977919106444</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>40.57519846404832</v>
+        <v>40.57519846399193</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>46.74641394722325</v>
+        <v>46.74641394722837</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>49.17508432308878</v>
+        <v>49.17508432305228</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>30.58261697133914</v>
+        <v>30.58261697128707</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>45.71562574679037</v>
+        <v>45.71562574670101</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>50.9895684009306</v>
+        <v>50.98956840085761</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>19.08622257696427</v>
+        <v>19.08622257681966</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>46.57639188643864</v>
+        <v>46.57639188633598</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>53.23042176189872</v>
+        <v>53.23042176188064</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>30.62095896569192</v>
+        <v>30.6209589657142</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>40.58864109443473</v>
+        <v>40.5886410944129</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>45.10573813183762</v>
+        <v>45.10573813183034</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>37.17179362280356</v>
+        <v>37.1717936227599</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>44.91783702274019</v>
+        <v>44.91783702260832</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>48.20920788329081</v>
+        <v>48.20920788323169</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>48.97507640218853</v>
+        <v>48.97507640210736</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>55.14636998943981</v>
+        <v>55.14636998941537</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>57.57506275005291</v>
+        <v>57.5750627499789</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>38.98246428986729</v>
+        <v>38.9824642898375</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>54.11566212005678</v>
+        <v>54.11566212000857</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>59.38967022004694</v>
+        <v>59.3896702200067</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>42.27879861881311</v>
+        <v>42.2787986188222</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>43.04421722610461</v>
+        <v>43.04421722607801</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>49.21543586281577</v>
+        <v>49.21543586280043</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>51.64410197052361</v>
+        <v>51.64410197048166</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>33.05161273152432</v>
+        <v>33.05161273142723</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>48.18464011869528</v>
+        <v>48.18464011869744</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>21.55509135504055</v>
+        <v>21.55509135501259</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>49.04526103444211</v>
+        <v>49.04526103434036</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>55.69927717041653</v>
+        <v>55.69927717038754</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>33.08998810078131</v>
+        <v>33.08998810078199</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>43.05769323862832</v>
+        <v>43.05769323865595</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>47.57477796366688</v>
+        <v>47.57477796368791</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>39.64083799234006</v>
+        <v>39.64083799238826</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>47.38690262810305</v>
+        <v>47.38690262809555</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>50.67826636716872</v>
+        <v>50.67826636716804</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>51.4441342180485</v>
+        <v>51.44413421801985</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>57.61543095865741</v>
+        <v>57.61543095864331</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>60.04411945042707</v>
+        <v>60.04411945043457</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>41.45149910353805</v>
+        <v>41.45149910344778</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>56.58471554432608</v>
+        <v>56.58471554423706</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>61.85871398327176</v>
+        <v>61.85871398327892</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>37.53196919136692</v>
+        <v>37.53196919131042</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>38.29734355669623</v>
+        <v>38.29734355660892</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>44.46854139131656</v>
+        <v>44.468541391302</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>46.89721981098287</v>
+        <v>46.89721981088828</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>28.30480507818267</v>
+        <v>28.3048050781106</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>43.43776314133131</v>
+        <v>43.43776314119932</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>48.71172661616267</v>
+        <v>48.7117266160682</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>16.80863141166858</v>
+        <v>16.80863141158127</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>44.29872451143867</v>
+        <v>44.29872451140229</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>50.9527734574581</v>
+        <v>50.95277345741535</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>28.34322237332869</v>
+        <v>28.34322237330777</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>38.31087332271093</v>
+        <v>38.31087332265317</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>42.82799032845926</v>
+        <v>42.82799032840287</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>34.89400270010244</v>
+        <v>34.89400270010608</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>42.64001683675965</v>
+        <v>42.64001683667961</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>45.93140520504189</v>
+        <v>45.93140520502006</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>46.69722881601526</v>
+        <v>46.69722881599912</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>52.86850475547796</v>
+        <v>52.86850475548354</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>55.2972055598482</v>
+        <v>55.29720555983013</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>36.70465971638534</v>
+        <v>36.70465971638739</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>51.83780683512625</v>
+        <v>51.83780683511193</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>57.11183575579482</v>
+        <v>57.11183575576049</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>3.98502288539364</v>
+        <v>3.985022885375678</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>31.47255563891499</v>
+        <v>31.47255563892136</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>38.12568470876376</v>
+        <v>38.12568470883402</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>15.51839209382594</v>
+        <v>15.51839209384914</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>25.48373367818353</v>
+        <v>25.48373367819092</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>30.0001774428189</v>
+        <v>30.00017744280196</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>22.06770089259728</v>
+        <v>22.06770089256931</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>29.81201249058554</v>
+        <v>29.81201249061589</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>33.10292051134697</v>
+        <v>33.10292051134936</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>33.86776372648048</v>
+        <v>33.86776372641886</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>40.03807565761669</v>
+        <v>40.03807565759578</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>42.46633286738008</v>
+        <v>42.4663328673703</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>23.87602454979267</v>
+        <v>23.87602454976993</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>39.00708665162917</v>
+        <v>39.00708665156767</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>44.28002953102648</v>
+        <v>44.28002953102045</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>10.02624549237591</v>
+        <v>10.02624549238637</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>37.51669205472219</v>
+        <v>37.51669205463443</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>44.17059973230814</v>
+        <v>44.17059973225357</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>21.56007393259099</v>
+        <v>21.5600739326351</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>31.52755919167557</v>
+        <v>31.5275591916426</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>36.04446561288332</v>
+        <v>36.04446561290469</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>28.11074140910139</v>
+        <v>28.11074140904159</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>35.856654701464</v>
+        <v>35.85665470140204</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>8.101343300631491</v>
+        <v>8.101343300558504</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>35.58908696695143</v>
+        <v>35.58908696692233</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>42.24222110164182</v>
+        <v>42.24222110163455</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>19.63506594937328</v>
+        <v>19.63506594941375</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>29.60051896781308</v>
+        <v>29.60051896778955</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>34.11695907541118</v>
+        <v>34.11695907537901</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>26.18446293112813</v>
+        <v>26.18446293120862</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>33.92886876197226</v>
+        <v>33.92886876204479</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>37.21977381445767</v>
+        <v>37.2197738144504</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>37.98466632653187</v>
+        <v>37.98466632661964</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>44.1550301611891</v>
+        <v>44.15503016121479</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>46.58329023757815</v>
+        <v>46.58329023757837</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>27.99281543287704</v>
+        <v>27.99281543290046</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>43.12402338766903</v>
+        <v>43.12402338777829</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>48.39696894360306</v>
+        <v>48.39696894359567</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>14.14310870250554</v>
+        <v>14.14310870250917</v>
       </c>
     </row>
     <row r="219">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>48.28767893925103</v>
+        <v>48.28767893920351</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>25.6772906164322</v>
+        <v>25.67729061646858</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>35.64488732182294</v>
+        <v>35.64488732182647</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>40.16179008735175</v>
+        <v>40.1617900873405</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>32.22804628862175</v>
+        <v>32.22804628864017</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>39.97405382337072</v>
+        <v>39.97405382328329</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>10.56986034038257</v>
+        <v>10.56986034035801</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>38.05760437816209</v>
+        <v>38.05760437812776</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>44.71072477541863</v>
+        <v>44.7107247753461</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>22.10374333160191</v>
+        <v>22.1037433316126</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>32.06921936104165</v>
+        <v>32.06921936100721</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>36.58564715861623</v>
+        <v>36.5856471584897</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>28.6531555443112</v>
+        <v>28.65315554440283</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>36.39758261252521</v>
+        <v>36.39758261250486</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>39.68848054513503</v>
+        <v>39.68848054512787</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>40.45337239718744</v>
+        <v>40.45337239724224</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>46.62373938587225</v>
+        <v>46.62373938592705</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>49.05199519503176</v>
+        <v>49.05199519499561</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>30.46149850333884</v>
+        <v>30.46149850335066</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>45.5927250698817</v>
+        <v>45.592725069885</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>50.86566096842287</v>
+        <v>50.86566096848141</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>16.61189755452258</v>
+        <v>16.6118975545369</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>44.1025554165109</v>
+        <v>44.10255541651193</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>50.75645442257714</v>
+        <v>50.75645442250086</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>28.14623982649916</v>
+        <v>28.14623982656465</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>38.11385954172035</v>
+        <v>38.11385954174946</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>42.63074999581047</v>
+        <v>42.63074999578864</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>34.69701073100079</v>
+        <v>34.69701073109015</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>42.44303950211317</v>
+        <v>42.44303950207122</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>5.824033275687974</v>
+        <v>5.82403327569525</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>33.31170073668024</v>
+        <v>33.31170073671219</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>39.96485394231652</v>
+        <v>39.96485394231208</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>17.35761051663874</v>
+        <v>17.35761051664874</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>27.32303235762756</v>
+        <v>27.3230323575166</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>31.83949243438101</v>
+        <v>31.83949243440829</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>23.90695317317843</v>
+        <v>23.90695317321686</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>31.651329741929</v>
+        <v>31.65132974192536</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>34.94225230315012</v>
+        <v>34.94225230312511</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>35.70709991018023</v>
+        <v>35.70709991020137</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>41.8774460972236</v>
+        <v>41.87744609708025</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>44.30571421773927</v>
+        <v>44.30571421769982</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>25.71529202594618</v>
+        <v>25.71529202594822</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>40.84644927109493</v>
+        <v>40.84644927105344</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>46.11941564911594</v>
+        <v>46.11941564905603</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>11.86553771281708</v>
+        <v>11.86553771279412</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>39.35611899311677</v>
+        <v>39.35611899309369</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>46.01005080878328</v>
+        <v>46.01005080874315</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>23.39957420180692</v>
+        <v>23.39957420185035</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>33.36713972610507</v>
+        <v>33.36713972611542</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>37.88406246055549</v>
+        <v>37.88406246051877</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>29.95027554278047</v>
+        <v>29.95027554282435</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>37.69625381291942</v>
+        <v>37.69625381289384</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>39.14790347936255</v>
+        <v>39.14790347931878</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>39.91314870587737</v>
+        <v>39.91314870592466</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>46.08443472804131</v>
+        <v>46.08443472801948</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>48.51300932908818</v>
+        <v>48.51300932897177</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>29.92039337250051</v>
+        <v>29.92039337247504</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>45.05364241166276</v>
+        <v>45.0536424115809</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>50.3273914031653</v>
+        <v>50.32739140313983</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>18.42454709434903</v>
+        <v>18.42454709435994</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>45.91486125795134</v>
+        <v>45.91486125794236</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>52.56870839617206</v>
+        <v>52.56870839614307</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>29.95887170117228</v>
+        <v>29.95887170121275</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>39.9266824650696</v>
+        <v>39.92668246507755</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>44.44362952628276</v>
+        <v>44.44362952630845</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>36.50980836467195</v>
+        <v>36.50980836465762</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>44.25598634655741</v>
+        <v>44.25598634650523</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>47.54722065729631</v>
+        <v>47.5472206573344</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>48.31291513731073</v>
+        <v>48.31291513732551</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>54.48427926355762</v>
+        <v>54.48427926357228</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>56.91287625170062</v>
+        <v>56.91287625168982</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>38.32012919343244</v>
+        <v>38.32012919343608</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>53.45356728605238</v>
+        <v>53.45356728599236</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>58.72738172543713</v>
+        <v>58.72738172549716</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>43.26529963418081</v>
+        <v>43.26529963418434</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>44.03059415726491</v>
+        <v>44.0305941571519</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>50.20193208762512</v>
+        <v>50.20193208756975</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>52.63050955634562</v>
+        <v>52.63050955631572</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>34.03772709822899</v>
+        <v>34.03772709828947</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>49.17112200293186</v>
+        <v>49.17112200297552</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>54.44487367381785</v>
+        <v>54.44487367381034</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>22.54151547520907</v>
+        <v>22.54151547518338</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>50.03204056658208</v>
+        <v>50.03204056660311</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>56.6858927697556</v>
+        <v>56.685892769773</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>34.07619355919908</v>
+        <v>34.07619355920726</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>44.04411576869543</v>
+        <v>44.04411576867258</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>48.56105917379855</v>
+        <v>48.56105917375387</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>40.62721841963664</v>
+        <v>40.62721841964778</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>48.3734906426487</v>
+        <v>48.3734906426122</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>51.66472198577483</v>
+        <v>51.66472198573765</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>52.43046576227018</v>
+        <v>52.43046576225927</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>58.60188179644151</v>
+        <v>58.60188179644333</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>61.03048165162104</v>
+        <v>61.03048165154373</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>42.43756809398226</v>
+        <v>42.43756809406775</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>57.57115205134928</v>
+        <v>57.57115205133473</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>62.84496916851972</v>
+        <v>62.84496916851608</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>45.73427819221231</v>
+        <v>45.73427819219787</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>46.49957204999784</v>
+        <v>46.49957205004946</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>52.67091313343317</v>
+        <v>52.67091313342635</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>55.0994863341863</v>
+        <v>55.09948633417152</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>36.50668198996689</v>
+        <v>36.5066819900808</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>51.64009550574533</v>
+        <v>51.6400955057318</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>56.91383751702178</v>
+        <v>56.91383751709898</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>25.01034338793695</v>
+        <v>25.0103433879797</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>52.50086884872623</v>
+        <v>52.50086884866712</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>59.15470731205257</v>
+        <v>59.1547073120021</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>36.54518182951576</v>
+        <v>36.545181829531</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>46.51312704767374</v>
+        <v>46.51312704769932</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>51.03005814037956</v>
+        <v>51.03005814035784</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>43.09622192185204</v>
+        <v>43.0962219218309</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>50.84251538041783</v>
+        <v>50.84251538037451</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>54.13373960214314</v>
+        <v>54.13373960215781</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>54.89948271167238</v>
+        <v>54.89948271161554</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>61.07090189860312</v>
+        <v>61.07090189861551</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>63.49949748491783</v>
+        <v>63.49949748495865</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>44.90656204148947</v>
+        <v>44.90656204151107</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>60.04016460916014</v>
+        <v>60.04016460918776</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>65.31397206548414</v>
+        <v>65.31397206554178</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>40.98751713214622</v>
+        <v>40.98751713212155</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>41.75276674639419</v>
+        <v>41.75276674640875</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>47.92408702816149</v>
+        <v>47.92408702808861</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>50.35267254110843</v>
+        <v>50.35267254098098</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>31.75994270189997</v>
+        <v>31.75994270193362</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>46.89328689308504</v>
+        <v>46.89328689310232</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>52.16705938534724</v>
+        <v>52.16705938532882</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>20.26395180440547</v>
+        <v>20.26395180445981</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>47.75440068537343</v>
+        <v>47.7544006853341</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>54.40827195996101</v>
+        <v>54.40827195991667</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>31.79848446357143</v>
+        <v>31.79848446361509</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>41.76637549240356</v>
+        <v>41.76637549242903</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>46.2833388659956</v>
+        <v>46.28333886607472</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>38.34945499308608</v>
+        <v>38.34945499311223</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>46.09569795256439</v>
+        <v>46.09569795247719</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>49.38694680370795</v>
+        <v>49.38694680370806</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>50.15264567249485</v>
+        <v>50.1526456724371</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>56.32404405846651</v>
+        <v>56.3240440584847</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>58.75265195754482</v>
+        <v>58.75265195756665</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>40.15979101649966</v>
+        <v>40.1597910165797</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>55.2933242614811</v>
+        <v>55.29332426143016</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>60.56716219989132</v>
+        <v>60.56716219991133</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>-7.928301559985108</v>
+        <v>-7.928301559936905</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>19.55904374939464</v>
+        <v>19.55904374940476</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>26.21246568597748</v>
+        <v>26.21246568606309</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>3.604927102787791</v>
+        <v>3.604927102817577</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>13.5699790637382</v>
+        <v>13.56997906377128</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>18.08664855784902</v>
+        <v>18.08664855788552</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>10.15397226550774</v>
+        <v>10.15397226549523</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>17.89802084820055</v>
+        <v>17.89802084820078</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>21.1891195851704</v>
+        <v>21.18911958517767</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>21.9542558407086</v>
+        <v>21.95425584081524</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>28.12444262187241</v>
+        <v>28.12444262187787</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>30.55283359153932</v>
+        <v>30.55283359153568</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>11.96288790711858</v>
+        <v>11.96288790718224</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>27.09352745571598</v>
+        <v>27.09352745573235</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>32.36676139524936</v>
+        <v>32.36676139527528</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>-1.887873576862809</v>
+        <v>-1.887873576867356</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>25.60238553868171</v>
+        <v>25.60238553871991</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>32.2565861195982</v>
+        <v>32.25658611959729</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>9.645814283921048</v>
+        <v>9.645814283846697</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>19.61300992337194</v>
+        <v>19.61300992339934</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>24.13014211031898</v>
+        <v>24.13014211031454</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>16.19621811281129</v>
+        <v>16.19621811287018</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>23.94186838677015</v>
+        <v>23.94186838678527</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>-3.811891850068925</v>
+        <v>-3.811891850134408</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>23.67566437239625</v>
+        <v>23.67566437246878</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>30.32909137608649</v>
+        <v>30.3290913761447</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>7.721690259213368</v>
+        <v>7.721690259322735</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>17.68685365426713</v>
+        <v>17.68685365436524</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>22.20351949255896</v>
+        <v>22.20351949257022</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>14.27082360699617</v>
+        <v>14.27082360696888</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>22.0149664223592</v>
+        <v>22.01496642237466</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>25.30606219261053</v>
+        <v>25.30606219262508</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>26.07124774513752</v>
+        <v>26.07124774523552</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>32.24148642942875</v>
+        <v>32.2414864294507</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>34.6698802666315</v>
+        <v>34.66988026658773</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>16.0797680945275</v>
+        <v>16.07976809452727</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>31.21055349511598</v>
+        <v>31.21055349519579</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>36.48379011327406</v>
+        <v>36.48379011328134</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>2.229078934838547</v>
+        <v>2.229078934883795</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>29.71954898086531</v>
+        <v>29.71954898083415</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>36.37375463060018</v>
+        <v>36.37375463059245</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>13.7631202767657</v>
+        <v>13.76312027675115</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>23.73042736230823</v>
+        <v>23.73042736232926</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>28.24755589480119</v>
+        <v>28.24755589471103</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>20.31361230352288</v>
+        <v>20.31361230341943</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>28.05935681914402</v>
+        <v>28.05935681912936</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-1.343284674990265</v>
+        <v>-1.343284674932512</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>26.14427191986751</v>
+        <v>26.1442719198242</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>32.79768518644951</v>
+        <v>32.79768518637777</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>10.19045778038414</v>
+        <v>10.19045778038937</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>20.15564418767442</v>
+        <v>20.15564418769636</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>24.67229771579994</v>
+        <v>24.67229771585189</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>16.73960636067638</v>
+        <v>16.73960636073459</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>24.48377041420067</v>
+        <v>24.48377041429537</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>27.77485906413371</v>
+        <v>27.7748590642291</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>28.54004395575978</v>
+        <v>28.54004395576023</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>34.7102857948387</v>
+        <v>34.71028579490669</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>37.13867536417731</v>
+        <v>37.13867536423552</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>18.54854130373021</v>
+        <v>18.54854130376659</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>33.67934531704147</v>
+        <v>33.67934531702874</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>38.95257227762752</v>
+        <v>38.95257227755112</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>4.697957929332482</v>
+        <v>4.697957929350217</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>32.18842834589579</v>
+        <v>32.18842834582247</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>38.84262025742921</v>
+        <v>38.84262025735588</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>16.23215963271311</v>
+        <v>16.23215963259397</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>26.19948972942361</v>
+        <v>26.1994897293654</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>30.71660595012613</v>
+        <v>30.71660595005519</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>22.78266689310478</v>
+        <v>22.78266689310455</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>30.5284326462154</v>
+        <v>30.5284326461456</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>-6.089252764744948</v>
+        <v>-6.089252764739719</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>21.3982272520831</v>
+        <v>21.39822725209049</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>28.05167332593614</v>
+        <v>28.05167332599446</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>5.444183933658699</v>
+        <v>5.444183933698945</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>15.40931615161789</v>
+        <v>15.40931615171169</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>19.92600195877676</v>
+        <v>19.92600195878415</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>11.9932629544335</v>
+        <v>11.99326295444896</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>19.73737650830176</v>
+        <v>19.73737650828721</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>23.02848978647821</v>
+        <v>23.02848978644183</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>23.79363043309674</v>
+        <v>23.79363043309856</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>29.96385147025753</v>
+        <v>29.96385147025935</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>32.39225335107735</v>
+        <v>32.3922533510155</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>13.80219379314192</v>
+        <v>13.80219379305824</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>28.93292848475235</v>
+        <v>28.93292848465776</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>34.20618592421729</v>
+        <v>34.20618592419</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>-0.04854294955951133</v>
+        <v>-0.0485429496409111</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>27.44185088462395</v>
+        <v>27.44185088455892</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>34.09607560521467</v>
+        <v>34.09607560520717</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>11.48535296451271</v>
+        <v>11.4853529643856</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>21.45262886955802</v>
+        <v>21.45262886957973</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>25.96977737057582</v>
+        <v>25.96977737051386</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>18.0357906581369</v>
+        <v>18.03579065818237</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>25.78150590982559</v>
+        <v>25.78150590980353</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>27.23330790879472</v>
+        <v>27.23330790885395</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>27.99884615798285</v>
+        <v>27.99884615797807</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>34.17000702875955</v>
+        <v>34.17000702876239</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>36.59871541072678</v>
+        <v>36.59871541070802</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>18.00646206032481</v>
+        <v>18.006462060441</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>33.13928853346228</v>
+        <v>33.13928853346479</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>38.41332863728066</v>
+        <v>38.41332863731704</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>6.511003944544221</v>
+        <v>6.511003944541493</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>34.00113067149723</v>
+        <v>34.00113067149746</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>40.65527070906946</v>
+        <v>40.65527070912517</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>18.04518799818836</v>
+        <v>18.04518799818245</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>28.01270915749014</v>
+        <v>28.012709157533</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>32.52988198173093</v>
+        <v>32.52988198179835</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>24.59586102258211</v>
+        <v>24.59586102265509</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>32.34177599788395</v>
+        <v>32.34177599798843</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>35.63320105071411</v>
+        <v>35.63320105080063</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>36.39918854497366</v>
+        <v>36.39918854500186</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>42.5704275268163</v>
+        <v>42.5704275267881</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>44.99915829356089</v>
+        <v>44.9991582936191</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>26.40677381584944</v>
+        <v>26.40677381591674</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>41.53978936285264</v>
+        <v>41.53978936302453</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>46.81389491161737</v>
+        <v>46.81389491167467</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>31.35079337502125</v>
+        <v>31.35079337499203</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>32.11638092134037</v>
+        <v>32.11638092135993</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>38.2875936998744</v>
+        <v>38.2875936999234</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>40.7163049504061</v>
+        <v>40.71630495042054</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>22.12388509732025</v>
+        <v>22.12388509730888</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>37.25685743549936</v>
+        <v>37.25685743547958</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>42.53090022096355</v>
+        <v>42.53090022082122</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>10.62806162831045</v>
+        <v>10.62806162833956</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>38.1183992834498</v>
+        <v>38.11839928344252</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>44.77254438845048</v>
+        <v>44.77254438842865</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>22.16259916569859</v>
+        <v>22.16259916574656</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>32.1302317707157</v>
+        <v>32.13023177071423</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>36.64740093986941</v>
+        <v>36.64740093985656</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>28.71336039022051</v>
+        <v>28.71336039023688</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>36.45936960564361</v>
+        <v>36.45936960576639</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>39.75079169237963</v>
+        <v>39.75079169238327</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>40.51682848342582</v>
+        <v>40.51682848348653</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>46.68811937251566</v>
+        <v>46.68811937259559</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>49.11685300713466</v>
+        <v>49.11685300712727</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>30.52430202854887</v>
+        <v>30.52430202850476</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>45.65746343948162</v>
+        <v>45.65746343949549</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>50.93157166846267</v>
+        <v>50.93157166838946</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>33.81986208125365</v>
+        <v>33.81986208117294</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>34.5854489615074</v>
+        <v>34.58544896150058</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>40.75666489389655</v>
+        <v>40.75666489392611</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>43.18537187633901</v>
+        <v>43.18537187636766</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>24.59293013445292</v>
+        <v>24.59293013447475</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>39.72592108491553</v>
+        <v>39.72592108486824</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>44.99995421091207</v>
+        <v>44.99995421084295</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>13.09697968230537</v>
+        <v>13.09697968237835</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>40.5873177075521</v>
+        <v>40.5873177074865</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>47.24144907278198</v>
+        <v>47.24144907276368</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>24.63167757982207</v>
+        <v>24.63167757981503</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>34.59933319445351</v>
+        <v>34.5993331944318</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>39.11649005091206</v>
+        <v>39.11649005092217</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>31.18245403878998</v>
+        <v>31.1824540389214</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>38.92848449069609</v>
+        <v>38.92848449070745</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>42.21989945594785</v>
+        <v>42.21989945603539</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>42.98593557892402</v>
+        <v>42.98593557900406</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>49.15722962146665</v>
+        <v>49.15722962147392</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>51.58595898726812</v>
+        <v>51.58595898728995</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>32.993386120231</v>
+        <v>32.99338612021281</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>48.12656614273353</v>
+        <v>48.12656614272534</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>53.40066471068396</v>
+        <v>53.40066471065486</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>29.07295997390124</v>
+        <v>29.07295997381757</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>29.83850261112186</v>
+        <v>29.83850261105956</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>36.00969774118177</v>
+        <v>36.00969774116688</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>38.43841703561932</v>
+        <v>38.43841703568469</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>19.84604980157771</v>
+        <v>19.84604980159931</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>34.97897142680031</v>
+        <v>34.97897142682191</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>40.25303503291925</v>
+        <v>40.25303503286809</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>8.350447063201749</v>
+        <v>8.350447063225396</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>35.84070850766786</v>
+        <v>35.84070850766241</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>42.49487268322402</v>
+        <v>42.49487268312944</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>19.88483917191981</v>
+        <v>19.88483917184023</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>29.85244059723916</v>
+        <v>29.85244059725735</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>34.36962973454481</v>
+        <v>34.36962973444658</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>26.43554606459977</v>
+        <v>26.43554606468344</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>34.18152601726788</v>
+        <v>34.18152601722058</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>37.47296561145335</v>
+        <v>37.47296561143153</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>38.23895749401006</v>
+        <v>38.23895749395913</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>44.41023073488443</v>
+        <v>44.41023073494173</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>46.8389724134827</v>
+        <v>46.83897241342085</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>28.24647405229214</v>
+        <v>28.24647405227758</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>43.37958475149892</v>
+        <v>43.37958475143343</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>48.65371380083027</v>
+        <v>48.65371380079389</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>-6.946735982014481</v>
+        <v>-6.946735981990265</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>20.53997116657799</v>
+        <v>20.53997116654832</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>27.19322331092078</v>
+        <v>27.19322331093112</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>4.586225207313895</v>
+        <v>4.586225207314349</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>14.5510609881625</v>
+        <v>14.55106098819319</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>19.06761344301812</v>
+        <v>19.06761344304018</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>11.13514454587996</v>
+        <v>11.13514454588087</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>18.87902679003118</v>
+        <v>18.87902679002823</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>22.1700401258221</v>
+        <v>22.17004012582279</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>22.93513594043591</v>
+        <v>22.93513594043409</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>29.10518454838702</v>
+        <v>29.1051845484209</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>31.53351138277812</v>
+        <v>31.53351138283315</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>12.94397660067718</v>
+        <v>12.94397660069378</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>28.07428434565715</v>
+        <v>28.07428434574594</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>33.34738216944222</v>
+        <v>33.34738216946575</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-0.9062218316819113</v>
+        <v>-0.9062218316101749</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>26.58339905745574</v>
+        <v>26.58339905745665</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>33.23742982695708</v>
+        <v>33.23742982696071</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>10.62719855404432</v>
+        <v>10.62719855413231</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>20.59417796508014</v>
+        <v>20.59417796511652</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>25.11119310127324</v>
+        <v>25.11119310128142</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>17.17747653155245</v>
+        <v>17.17747653158838</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>24.92296043145839</v>
+        <v>24.92296043146577</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-2.830428321367755</v>
+        <v>-2.830428321337628</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>24.6564897350112</v>
+        <v>24.65648973498141</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>31.30974694634951</v>
+        <v>31.30974694632064</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>8.702886306718959</v>
+        <v>8.702886306788763</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>18.66783351851884</v>
+        <v>18.66783351844972</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>23.18438231763505</v>
+        <v>23.18438231763687</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>15.25189382722422</v>
+        <v>15.25189382717578</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>22.99587030149998</v>
+        <v>22.99587030146235</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>26.28688067047781</v>
+        <v>26.28688067044518</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>27.05202578080686</v>
+        <v>27.05202578081141</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>33.22212629080459</v>
+        <v>33.22212629081277</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>35.65045599251916</v>
+        <v>35.65045599247915</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>17.0607547272223</v>
+        <v>17.06075472725981</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>32.19120832070339</v>
+        <v>32.19120832068145</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>37.46430882315112</v>
+        <v>37.46430882312941</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>3.210628618571967</v>
+        <v>3.210628618598797</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>30.70046043306413</v>
+        <v>30.7004604331204</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>37.35449627161417</v>
+        <v>37.3544962716277</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>14.74440247740906</v>
+        <v>14.74440247735927</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>24.71149333190592</v>
+        <v>24.71149333190581</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>29.22850481332321</v>
+        <v>29.22850481337266</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>21.29476864929418</v>
+        <v>21.29476864930168</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>29.04034678898827</v>
+        <v>29.04034678899202</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>-0.3618855778246157</v>
+        <v>-0.3618855778522416</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>27.12503285055711</v>
+        <v>27.12503285059281</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>33.77827632539768</v>
+        <v>33.77827632542064</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>11.17158939275193</v>
+        <v>11.17158939276239</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>21.13655961597205</v>
+        <v>21.13655961610507</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>25.65309610492013</v>
+        <v>25.65309610496447</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>17.72061214528505</v>
+        <v>17.72061214522866</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>25.46460985711294</v>
+        <v>25.46460985708895</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>28.75561310592482</v>
+        <v>28.75561310593061</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>29.52075755582816</v>
+        <v>29.52075755587227</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>35.69086122038984</v>
+        <v>35.69086122036858</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>38.11918665461271</v>
+        <v>38.11918665462419</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>19.52946350093386</v>
+        <v>19.52946350093614</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>34.65993570651826</v>
+        <v>34.65993570651712</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>39.93302655156381</v>
+        <v>39.93302655157017</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>5.679443174143465</v>
+        <v>5.679443174204174</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>33.16927535946947</v>
+        <v>33.16927535952609</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>39.82329746007976</v>
+        <v>39.82329746004884</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>17.21337739073558</v>
+        <v>17.21337739070466</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>27.1804912554235</v>
+        <v>27.18049125545442</v>
       </c>
     </row>
     <row r="606">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>23.76375879633203</v>
+        <v>23.7637587963068</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>31.50935817259008</v>
+        <v>31.50935817257496</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>-5.107733697023697</v>
+        <v>-5.107733697067353</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>22.37910815590944</v>
+        <v>22.3791081559689</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>29.03238443722571</v>
+        <v>29.0323844372622</v>
       </c>
     </row>
     <row r="612">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>16.39035155923877</v>
+        <v>16.39035155912622</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>20.90692032661516</v>
+        <v>20.90692032661448</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>12.97438871930537</v>
+        <v>12.97438871924034</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>20.71833593230044</v>
+        <v>20.71833593225872</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>24.00936380898897</v>
+        <v>24.00936380893088</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>24.77446401460545</v>
+        <v>24.77446401456566</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>30.94454687781424</v>
+        <v>30.94454687780969</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>33.37288462308518</v>
+        <v>33.37288462308177</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>14.78323597027909</v>
+        <v>14.78323597029046</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>29.91363885589069</v>
+        <v>29.91363885582748</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>35.18676017901182</v>
+        <v>35.18676017902273</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>0.9330622792361041</v>
+        <v>0.9330622791502705</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>28.42281788403297</v>
+        <v>28.42281788392372</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>35.07687279293273</v>
+        <v>35.07687279283643</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>12.46669071416593</v>
+        <v>12.46669071416752</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>22.43375038807553</v>
+        <v>22.43375038812544</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>26.95078183804426</v>
+        <v>26.95078183803687</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>19.01700255465337</v>
+        <v>19.01700255463381</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>26.7625514301159</v>
+        <v>26.76255143011704</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>28.21431454406288</v>
+        <v>28.21431454407459</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>28.97981234002079</v>
+        <v>28.97981233999169</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>35.15083501548295</v>
+        <v>35.15083501546658</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>37.57947925392298</v>
+        <v>37.57947925390115</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>18.98763685726728</v>
+        <v>18.98763685733368</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>34.12013147882637</v>
+        <v>34.12013147892085</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>39.39403544676363</v>
+        <v>39.39403544675533</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>7.492437321661122</v>
+        <v>7.492437321689316</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>34.98192582623258</v>
+        <v>34.98192582627816</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>41.63589605389031</v>
+        <v>41.63589605389043</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>19.02635388920501</v>
+        <v>19.02635388926412</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>28.99365881150643</v>
+        <v>28.99365881155122</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>33.51071458396145</v>
+        <v>33.51071458397623</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>25.5769010548029</v>
+        <v>25.57690105480335</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>33.32264964920446</v>
+        <v>33.32264964916092</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>36.61398929287102</v>
+        <v>36.61398929283157</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>37.37993632381087</v>
+        <v>37.37993632385248</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>43.55103710844119</v>
+        <v>43.55103710839764</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>45.97970373114062</v>
+        <v>45.97970373113255</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>27.38773021094314</v>
+        <v>27.38773021095883</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>42.52041390197737</v>
+        <v>42.52041390194906</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>47.79438331291944</v>
+        <v>47.79438331285407</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>32.33169793576646</v>
+        <v>32.33169793575203</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>33.09724502780821</v>
+        <v>33.09724502779365</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>39.26831961026314</v>
+        <v>39.26831961027769</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>41.69696671721854</v>
+        <v>41.69696671720376</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>23.1049578210316</v>
+        <v>23.10495782104979</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>38.23759830489009</v>
+        <v>38.23759830489362</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>43.51150495395748</v>
+        <v>43.51150495393917</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>11.6093929422889</v>
+        <v>11.609392942303</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>39.09909236939327</v>
+        <v>39.09909236934347</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>45.7530676640479</v>
+        <v>45.75306766397718</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>23.14366298460802</v>
+        <v>23.14366298463712</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>33.11107935027976</v>
+        <v>33.11107935036718</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>37.62813146796829</v>
+        <v>37.62813146802662</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>29.69429834716905</v>
+        <v>29.69429834719815</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>37.44014118037389</v>
+        <v>37.44014118039572</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>40.73147785794404</v>
+        <v>40.73147785790766</v>
       </c>
     </row>
     <row r="670">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>47.66862687554194</v>
+        <v>47.66862687553466</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>50.09729636630563</v>
+        <v>50.09729636632746</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>31.50515634818023</v>
+        <v>31.50515634825663</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>46.63798589996625</v>
+        <v>46.63798589995533</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>51.91195799124014</v>
+        <v>51.9119579912365</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>34.8007021984911</v>
+        <v>34.80070219850759</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>35.56624862501896</v>
+        <v>35.56624862497599</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>41.73732636085779</v>
+        <v>41.73732636082971</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>44.16596919964936</v>
+        <v>44.16596919964379</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>25.57393841569571</v>
+        <v>25.57393841574801</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>40.70659751133248</v>
+        <v>40.70659751139103</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>45.9804945012851</v>
+        <v>45.9804945012602</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>14.07824655603419</v>
+        <v>14.07824655603351</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>41.56794635359815</v>
+        <v>41.56794635353017</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>48.22190790898539</v>
+        <v>48.22190790890536</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>25.61267695541758</v>
+        <v>25.61267695545441</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>35.58011633042533</v>
+        <v>35.58011633043352</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>40.09715613558037</v>
+        <v>40.09715613559515</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>32.16332755205783</v>
+        <v>32.16332755209034</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>39.90919162078821</v>
+        <v>39.90919162079651</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>43.20052117723858</v>
+        <v>43.200521177213</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>43.96651683624102</v>
+        <v>43.96651683625398</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>50.13767268044105</v>
+        <v>50.13767268047277</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>52.56633790234471</v>
+        <v>52.56633790229434</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>33.97417599681378</v>
+        <v>33.97417599680013</v>
       </c>
     </row>
     <row r="696">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>54.38098659027482</v>
+        <v>54.38098659023867</v>
       </c>
     </row>
     <row r="698">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>30.81942226882372</v>
+        <v>30.81942226883827</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>36.9904792029263</v>
+        <v>36.99047920286809</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>39.41913435346921</v>
+        <v>39.41913435341123</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>20.82717807546967</v>
+        <v>20.82717807549695</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>35.95976784721645</v>
+        <v>35.95976784722725</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>41.23369531664232</v>
+        <v>41.2336953166422</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>9.331833921249221</v>
+        <v>9.331833921115525</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>36.82145714034143</v>
+        <v>36.82145714025867</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>43.47545150522048</v>
+        <v>43.47545150514954</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>20.86595853978908</v>
+        <v>20.86595853978772</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>30.83334372551044</v>
+        <v>30.83334372553249</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>35.35041581088822</v>
+        <v>35.35041581088753</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>27.41653957113797</v>
+        <v>27.41653957109499</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>35.1623531413052</v>
+        <v>35.16235314123301</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>38.45370732615154</v>
+        <v>38.45370732608685</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>39.21965874556897</v>
+        <v>39.21965874556079</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>45.39079378888894</v>
+        <v>45.39079378893486</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>47.8194713232697</v>
+        <v>47.81947132325515</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>29.22738392151089</v>
+        <v>29.2273839214836</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>44.36016276289151</v>
+        <v>44.3601627628424</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>49.63415567387542</v>
+        <v>49.63415567383176</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>-3.522932659699315</v>
+        <v>-3.522932659679761</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>23.96488041448244</v>
+        <v>23.96488041449177</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>30.61820838990413</v>
+        <v>30.61820838990982</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>8.010354231851146</v>
+        <v>8.010354231921177</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>17.97567328490415</v>
+        <v>17.97567328497453</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>22.49227732957345</v>
+        <v>22.49227732970885</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>14.55961473480104</v>
+        <v>14.55961473492086</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>22.30389139126273</v>
+        <v>22.30389139126773</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>25.59491956052252</v>
+        <v>25.59491956054253</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>26.35989803907776</v>
+        <v>26.35989803906889</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>32.53022138345286</v>
+        <v>32.53022138340216</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>34.95856938324837</v>
+        <v>34.95856938328316</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>16.36824161812435</v>
+        <v>16.36824161828374</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>31.49926908683167</v>
+        <v>31.49926908686907</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>36.77241295909564</v>
+        <v>36.77241295911463</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>2.517858802493741</v>
+        <v>2.517858802503063</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>30.00858573066991</v>
+        <v>30.0085857306399</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>36.66269234189897</v>
+        <v>36.66269234191716</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>14.05160492374923</v>
+        <v>14.0516049237963</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>24.01906768171207</v>
+        <v>24.01906768169581</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>28.5361344077502</v>
+        <v>28.53613440776487</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>20.60222411535189</v>
+        <v>20.60222411544284</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>28.34810248662748</v>
+        <v>28.3481024866302</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>0.5934729841092334</v>
+        <v>0.5934729841027533</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>28.08149697471233</v>
+        <v>28.08149697473996</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>34.7348300159854</v>
+        <v>34.73483001594459</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>12.12711332386359</v>
+        <v>12.12711332399888</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>22.09254381276585</v>
+        <v>22.09254381281007</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>26.60914420121846</v>
+        <v>26.60914420121494</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>18.67646201201935</v>
+        <v>18.67646201192158</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>26.42083290258838</v>
+        <v>26.42083290259247</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>29.71185810440524</v>
+        <v>29.71185810433976</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>30.4768858805817</v>
+        <v>30.47688588053827</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>36.64726112807559</v>
+        <v>36.64726112806434</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>39.07561199493286</v>
+        <v>39.07561199495117</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>20.4851177412261</v>
+        <v>20.48511774125929</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>35.61629106433954</v>
+        <v>35.6162910643367</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>40.88943761471435</v>
+        <v>40.88943761466626</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>6.634807252655513</v>
+        <v>6.634807252655285</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>34.12574511474352</v>
+        <v>34.12574511468679</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>40.77985679386304</v>
+        <v>40.77985679387861</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>18.16890685466685</v>
+        <v>18.16890685467708</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>28.13648106103235</v>
+        <v>28.13648106096698</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>32.65354413198681</v>
+        <v>32.65354413194395</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>24.71961424357894</v>
+        <v>24.719614243523</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>32.46558685898278</v>
+        <v>32.46558685886887</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>3.062066639772432</v>
+        <v>3.062066639803582</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>30.55009100203372</v>
+        <v>30.55009100202985</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>37.20341030612737</v>
+        <v>37.2034103061367</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>14.59586732628465</v>
+        <v>14.59586732630898</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>24.56132082698061</v>
+        <v>24.56132082708123</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>29.07790890485014</v>
+        <v>29.07790890490323</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>21.14523124596783</v>
+        <v>21.14523124596237</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>28.88962337478451</v>
+        <v>28.88962337477201</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>32.18064145630924</v>
+        <v>32.18064145629992</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>32.94566857156999</v>
+        <v>32.94566857155817</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>39.11604697423959</v>
+        <v>39.11604697417354</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>41.54439357357469</v>
+        <v>41.54439357356843</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>22.95387743153972</v>
+        <v>22.95387743160679</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>38.08506936684139</v>
+        <v>38.08506936681513</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>43.35820625957094</v>
+        <v>43.35820625956492</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>9.103672728035711</v>
+        <v>9.103672728035029</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>36.59461095973213</v>
+        <v>36.59461095967961</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>43.24870890022614</v>
+        <v>43.24870890009267</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>20.63793269226564</v>
+        <v>20.63793269219038</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>30.60552990914018</v>
+        <v>30.60552990922408</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>35.12258066865959</v>
+        <v>35.12258066860979</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>27.18865531409849</v>
+        <v>27.18865531416557</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>34.93464916640905</v>
+        <v>34.934649166456</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>-1.683887836934197</v>
+        <v>-1.683887836918394</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>25.80405994663433</v>
+        <v>25.80405994663365</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>32.45741205885943</v>
+        <v>32.45741205880963</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>9.849607091177653</v>
+        <v>9.849607091153779</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>19.81500640157164</v>
+        <v>19.81500640161041</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>24.33162675925305</v>
+        <v>24.33162675933865</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>16.39890145223583</v>
+        <v>16.39890145225288</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>24.14324308039809</v>
+        <v>24.14324308044322</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>27.43428579085926</v>
+        <v>27.43428579087483</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>28.19926866064863</v>
+        <v>28.19926866060521</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>34.36962626109132</v>
+        <v>34.36962626111042</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>36.79798517224415</v>
+        <v>36.79798517216616</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>18.20754353274676</v>
+        <v>18.20754353275722</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>33.33866614524199</v>
+        <v>33.33866614517242</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>38.61183351744571</v>
+        <v>38.61183351739705</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>4.357185459777178</v>
+        <v>4.357185459776041</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>31.8480471082594</v>
+        <v>31.84804710817709</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>38.50217785890393</v>
+        <v>38.50217785885663</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>15.89113963363823</v>
+        <v>15.89113963365619</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>25.85868265831348</v>
+        <v>25.85868265828415</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>30.37576569838213</v>
+        <v>30.37576569845807</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>22.44179269029362</v>
+        <v>22.441792690232</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>30.18773603998184</v>
+        <v>30.18773603998172</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>31.63947143129567</v>
+        <v>31.63947143123018</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>32.40485192444273</v>
+        <v>32.40485192441681</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>38.57614937339238</v>
+        <v>38.5761493733992</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>41.00481477818428</v>
+        <v>41.00481477819087</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>22.41217932712041</v>
+        <v>22.41217932719317</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>37.54539376355697</v>
+        <v>37.5453937636079</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>42.81934378290216</v>
+        <v>42.8193437828585</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>10.91667569107928</v>
+        <v>10.91667569107997</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>38.40727022811577</v>
+        <v>38.40727022811986</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>45.06131630053985</v>
+        <v>45.06131630054076</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>22.45091800096477</v>
+        <v>22.45091800104071</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>32.41870627873245</v>
+        <v>32.4187062786614</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>36.93581364589399</v>
+        <v>36.9358136458741</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>29.00180639222824</v>
+        <v>29.00180639233897</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>36.74794946557986</v>
+        <v>36.7479494655196</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>40.03930394356021</v>
+        <v>40.039303943502</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>40.80513368976451</v>
+        <v>40.8051336897752</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>46.97650924935683</v>
+        <v>46.97650924933716</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>49.40519704157455</v>
+        <v>49.40519704148371</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>30.8124304666476</v>
+        <v>30.81243046664147</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>45.94583397582223</v>
+        <v>45.94583397577687</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>51.21984944366877</v>
+        <v>51.21984944361045</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>35.756952837211</v>
+        <v>35.75695283720349</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>36.522382627717</v>
+        <v>36.52238262766971</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>42.69373198522216</v>
+        <v>42.69373198519215</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>45.12240025836709</v>
+        <v>45.12240025830251</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>26.52959830264333</v>
+        <v>26.52959830273792</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>41.66295860720665</v>
+        <v>41.66295860717027</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>46.93691130692141</v>
+        <v>46.93691130692277</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>15.03372931538231</v>
+        <v>15.03372931540527</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>42.52453478383975</v>
+        <v>42.52453478382179</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>49.17858592233576</v>
+        <v>49.17858592231598</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>26.56832510953452</v>
+        <v>26.56832510967367</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>36.53622483538609</v>
+        <v>36.53622483539393</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>41.05332854683936</v>
+        <v>41.05332854685334</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>33.11930169929362</v>
+        <v>33.11930169929726</v>
       </c>
     </row>
     <row r="848">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>44.15689052681389</v>
+        <v>44.15689052690029</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>44.9227695704126</v>
+        <v>44.92276957041806</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>51.09419703820722</v>
+        <v>51.09419703818505</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>53.52288769802262</v>
+        <v>53.52288769806253</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>34.92995462026513</v>
+        <v>34.92995462035426</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>50.06350399646887</v>
+        <v>50.06350399649275</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>55.33752214353446</v>
+        <v>55.33752214357448</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>38.22600802378283</v>
+        <v>38.22600802377521</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>38.99143714903541</v>
+        <v>38.99143714899926</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>45.16278966015741</v>
+        <v>45.16278966015093</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>47.5914536648768</v>
+        <v>47.59145366488396</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>28.99862982161496</v>
+        <v>28.9986298216884</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>44.13200873773703</v>
+        <v>44.13200873774681</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>49.40595177798846</v>
+        <v>49.40595177800301</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>17.50263385148266</v>
+        <v>17.502633851532</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>44.99343968942744</v>
+        <v>44.99343968944131</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>51.64747708821928</v>
+        <v>51.64747708819404</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>29.03739000664907</v>
+        <v>29.03739000668022</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>39.00531274169114</v>
+        <v>39.00531274155323</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>43.52240414051428</v>
+        <v>43.52240414038592</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>35.58838183060859</v>
+        <v>35.58838183055993</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>43.33464038266381</v>
+        <v>43.33464038278171</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>46.625984772586</v>
+        <v>46.62598477255678</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>47.39186314785163</v>
+        <v>47.39186314788642</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>53.56329376920862</v>
+        <v>53.56329376924489</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>55.99198016014557</v>
+        <v>55.99198016011658</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>37.39902519568093</v>
+        <v>37.39902519573322</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>52.53259318283542</v>
+        <v>52.53259318281325</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>57.80660166875239</v>
+        <v>57.80660166870702</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>33.47911952674567</v>
+        <v>33.47911952666893</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>34.24450440851822</v>
+        <v>34.24450440849798</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>40.41583611686976</v>
+        <v>40.41583611683156</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>42.84451243394781</v>
+        <v>42.84451243384958</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>24.25176309880614</v>
+        <v>24.25176309886435</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>39.38507268799369</v>
+        <v>39.38507268797186</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>44.65904620904578</v>
+        <v>44.65904620902349</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>12.75611484076924</v>
+        <v>12.75611484076014</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>40.24684409703243</v>
+        <v>40.24684409701174</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>46.9009143069143</v>
+        <v>46.90091430688519</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>24.29056520632368</v>
+        <v>24.29056520634665</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>34.25843375094112</v>
+        <v>34.25843375089098</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>38.7755574309024</v>
+        <v>38.77555743090979</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>30.84148746509302</v>
+        <v>30.84148746514395</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>38.58769551661944</v>
+        <v>38.58769551663399</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>41.87906453629935</v>
+        <v>41.87906453627115</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>42.64489867133536</v>
+        <v>42.64489867127352</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>48.81630849057264</v>
+        <v>48.81630849056719</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>51.24500719449215</v>
+        <v>51.24500719444668</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>32.65212673478734</v>
+        <v>32.65212673480189</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>47.78562539721192</v>
+        <v>47.78562539724103</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>53.0596643654866</v>
+        <v>53.05966436546296</v>
       </c>
     </row>
   </sheetData>
